--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duycs\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdroid/Project/Flutter/CD-Team07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C759B71-FBCF-4CC5-9FAA-C2FD18C111BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20D69D3-E668-D14D-BC4A-74A572395A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4583C4E1-F2DA-44C2-8048-959C56D65FD0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{4583C4E1-F2DA-44C2-8048-959C56D65FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Giao diện người dùng</t>
   </si>
   <si>
-    <t>Website bán quần áo ABC Wear</t>
-  </si>
-  <si>
     <t>Quản lý</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Phân tích các tác nhân trong và ngoài hệ thống tác động lên hệ thống</t>
+  </si>
+  <si>
+    <t>Mạng xã hội</t>
   </si>
 </sst>
 </file>
@@ -642,20 +642,19 @@
   <dimension ref="A1:AK1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="3"/>
-    <col min="2" max="2" width="26.7890625" customWidth="1"/>
-    <col min="3" max="3" width="26.83984375" customWidth="1"/>
-    <col min="4" max="4" width="33.47265625" customWidth="1"/>
-    <col min="5" max="5" width="56.05078125" customWidth="1"/>
-    <col min="6" max="6" width="15.15625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:23" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -670,24 +669,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="48.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:23" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
@@ -710,7 +709,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="21.3" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:23" ht="21.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -720,7 +719,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -741,17 +740,17 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -772,17 +771,17 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -803,17 +802,17 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -834,7 +833,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -844,7 +843,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -865,7 +864,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -894,17 +893,17 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -925,17 +924,17 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -956,17 +955,17 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -987,7 +986,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1.3</v>
       </c>
@@ -1016,7 +1015,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1047,7 +1046,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1078,7 +1077,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1107,17 +1106,17 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1138,7 +1137,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1.4</v>
       </c>
@@ -1167,17 +1166,17 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="53.1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:23" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1198,7 +1197,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -1227,17 +1226,17 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:23" ht="38" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1258,7 +1257,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1.6</v>
       </c>
@@ -1287,7 +1286,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1318,17 +1317,17 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1349,17 +1348,17 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="17.7" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1380,7 +1379,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="36.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:23" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1.7</v>
       </c>
@@ -1390,7 +1389,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1411,7 +1410,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1429,7 +1428,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1447,7 +1446,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1465,7 +1464,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1483,7 +1482,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1501,7 +1500,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1519,7 +1518,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1537,7 +1536,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1555,7 +1554,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1573,7 +1572,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1591,7 +1590,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1609,7 +1608,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1627,7 +1626,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1645,7 +1644,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1663,7 +1662,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1681,7 +1680,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1699,7 +1698,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1717,7 +1716,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1735,7 +1734,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1760,7 +1759,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1785,7 +1784,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1810,7 +1809,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1835,7 +1834,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1860,7 +1859,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1885,7 +1884,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1910,7 +1909,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1935,7 +1934,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1960,7 +1959,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1985,7 +1984,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2010,7 +2009,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2035,7 +2034,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2060,7 +2059,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2085,7 +2084,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2110,7 +2109,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2135,7 +2134,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2160,7 +2159,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2185,7 +2184,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2210,7 +2209,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2235,7 +2234,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2260,7 +2259,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2285,7 +2284,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2310,7 +2309,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2335,7 +2334,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2360,7 +2359,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2385,7 +2384,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2410,7 +2409,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2435,7 +2434,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2460,7 +2459,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2485,7 +2484,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2510,7 +2509,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2535,7 +2534,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2560,7 +2559,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2585,7 +2584,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2610,7 +2609,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2635,7 +2634,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2660,7 +2659,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2685,7 +2684,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2710,7 +2709,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2735,7 +2734,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2760,7 +2759,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2785,7 +2784,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2810,7 +2809,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2835,7 +2834,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2860,7 +2859,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2885,7 +2884,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2910,7 +2909,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2935,7 +2934,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2960,7 +2959,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2985,7 +2984,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3010,7 +3009,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3035,7 +3034,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3060,7 +3059,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3085,7 +3084,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3110,7 +3109,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3135,7 +3134,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3160,7 +3159,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3185,7 +3184,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3210,7 +3209,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3235,7 +3234,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3260,7 +3259,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3285,7 +3284,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3310,7 +3309,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3335,7 +3334,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3360,7 +3359,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3385,7 +3384,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3410,7 +3409,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3435,7 +3434,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3460,7 +3459,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3485,7 +3484,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3510,7 +3509,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3535,7 +3534,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3560,7 +3559,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3585,7 +3584,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3610,7 +3609,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3635,7 +3634,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3660,7 +3659,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3685,7 +3684,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3710,7 +3709,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3735,7 +3734,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3760,7 +3759,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3785,7 +3784,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3810,7 +3809,7 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3835,7 +3834,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3860,7 +3859,7 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3885,7 +3884,7 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3910,7 +3909,7 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3935,7 +3934,7 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3960,7 +3959,7 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3985,7 +3984,7 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4010,7 +4009,7 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4035,7 +4034,7 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4060,7 +4059,7 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4085,7 +4084,7 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4110,7 +4109,7 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4135,7 +4134,7 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4160,7 +4159,7 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4185,7 +4184,7 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4210,7 +4209,7 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4235,7 +4234,7 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4260,7 +4259,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4285,7 +4284,7 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4310,7 +4309,7 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4335,7 +4334,7 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4360,7 +4359,7 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4385,7 +4384,7 @@
       <c r="V150" s="1"/>
       <c r="W150" s="1"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4410,7 +4409,7 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4435,7 +4434,7 @@
       <c r="V152" s="1"/>
       <c r="W152" s="1"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4460,7 +4459,7 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4485,7 +4484,7 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4510,7 +4509,7 @@
       <c r="V155" s="1"/>
       <c r="W155" s="1"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4535,7 +4534,7 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4560,7 +4559,7 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4585,7 +4584,7 @@
       <c r="V158" s="1"/>
       <c r="W158" s="1"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4610,7 +4609,7 @@
       <c r="V159" s="1"/>
       <c r="W159" s="1"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4635,7 +4634,7 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4660,7 +4659,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4685,7 +4684,7 @@
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4710,7 +4709,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4735,7 +4734,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4760,7 +4759,7 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4785,7 +4784,7 @@
       <c r="V166" s="1"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4810,7 +4809,7 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4835,7 +4834,7 @@
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4860,7 +4859,7 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4885,7 +4884,7 @@
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4910,7 +4909,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4935,7 +4934,7 @@
       <c r="V172" s="1"/>
       <c r="W172" s="1"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4960,7 +4959,7 @@
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4985,7 +4984,7 @@
       <c r="V174" s="1"/>
       <c r="W174" s="1"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5010,7 +5009,7 @@
       <c r="V175" s="1"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5035,7 +5034,7 @@
       <c r="V176" s="1"/>
       <c r="W176" s="1"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5060,7 +5059,7 @@
       <c r="V177" s="1"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5085,7 +5084,7 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5110,7 +5109,7 @@
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5135,7 +5134,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5160,7 +5159,7 @@
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5185,7 +5184,7 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5210,7 +5209,7 @@
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5235,7 +5234,7 @@
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5260,7 +5259,7 @@
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5285,7 +5284,7 @@
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5310,7 +5309,7 @@
       <c r="V187" s="1"/>
       <c r="W187" s="1"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5335,7 +5334,7 @@
       <c r="V188" s="1"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5360,7 +5359,7 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5385,7 +5384,7 @@
       <c r="V190" s="1"/>
       <c r="W190" s="1"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5410,7 +5409,7 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5435,7 +5434,7 @@
       <c r="V192" s="1"/>
       <c r="W192" s="1"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5460,7 +5459,7 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5485,7 +5484,7 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5510,7 +5509,7 @@
       <c r="V195" s="1"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5535,7 +5534,7 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5560,7 +5559,7 @@
       <c r="V197" s="1"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5585,7 +5584,7 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5610,7 +5609,7 @@
       <c r="V199" s="1"/>
       <c r="W199" s="1"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5635,7 +5634,7 @@
       <c r="V200" s="1"/>
       <c r="W200" s="1"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5660,7 +5659,7 @@
       <c r="V201" s="1"/>
       <c r="W201" s="1"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5685,7 +5684,7 @@
       <c r="V202" s="1"/>
       <c r="W202" s="1"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5710,7 +5709,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5735,7 +5734,7 @@
       <c r="V204" s="1"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5760,7 +5759,7 @@
       <c r="V205" s="1"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5785,7 +5784,7 @@
       <c r="V206" s="1"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5810,7 +5809,7 @@
       <c r="V207" s="1"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5835,7 +5834,7 @@
       <c r="V208" s="1"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5860,7 +5859,7 @@
       <c r="V209" s="1"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5885,7 +5884,7 @@
       <c r="V210" s="1"/>
       <c r="W210" s="1"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -5910,7 +5909,7 @@
       <c r="V211" s="1"/>
       <c r="W211" s="1"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -5935,7 +5934,7 @@
       <c r="V212" s="1"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -5960,7 +5959,7 @@
       <c r="V213" s="1"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -5985,7 +5984,7 @@
       <c r="V214" s="1"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6010,7 +6009,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6035,7 +6034,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6060,7 +6059,7 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6085,7 +6084,7 @@
       <c r="V218" s="1"/>
       <c r="W218" s="1"/>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6110,7 +6109,7 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6135,7 +6134,7 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6160,7 +6159,7 @@
       <c r="V221" s="1"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6185,7 +6184,7 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6210,7 +6209,7 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6235,7 +6234,7 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6260,7 +6259,7 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6285,7 +6284,7 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6310,7 +6309,7 @@
       <c r="V227" s="1"/>
       <c r="W227" s="1"/>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6335,7 +6334,7 @@
       <c r="V228" s="1"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6360,7 +6359,7 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6385,7 +6384,7 @@
       <c r="V230" s="1"/>
       <c r="W230" s="1"/>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6410,7 +6409,7 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6435,7 +6434,7 @@
       <c r="V232" s="1"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6460,7 +6459,7 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6485,7 +6484,7 @@
       <c r="V234" s="1"/>
       <c r="W234" s="1"/>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6510,7 +6509,7 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6535,7 +6534,7 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6560,7 +6559,7 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6585,7 +6584,7 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6610,7 +6609,7 @@
       <c r="V239" s="1"/>
       <c r="W239" s="1"/>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6635,7 +6634,7 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6660,7 +6659,7 @@
       <c r="V241" s="1"/>
       <c r="W241" s="1"/>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6685,7 +6684,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6710,7 +6709,7 @@
       <c r="V243" s="1"/>
       <c r="W243" s="1"/>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6735,7 +6734,7 @@
       <c r="V244" s="1"/>
       <c r="W244" s="1"/>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6760,7 +6759,7 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6785,7 +6784,7 @@
       <c r="V246" s="1"/>
       <c r="W246" s="1"/>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6810,7 +6809,7 @@
       <c r="V247" s="1"/>
       <c r="W247" s="1"/>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6835,7 +6834,7 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6860,7 +6859,7 @@
       <c r="V249" s="1"/>
       <c r="W249" s="1"/>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6885,7 +6884,7 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6910,7 +6909,7 @@
       <c r="V251" s="1"/>
       <c r="W251" s="1"/>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6935,7 +6934,7 @@
       <c r="V252" s="1"/>
       <c r="W252" s="1"/>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6960,7 +6959,7 @@
       <c r="V253" s="1"/>
       <c r="W253" s="1"/>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6985,7 +6984,7 @@
       <c r="V254" s="1"/>
       <c r="W254" s="1"/>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7010,7 +7009,7 @@
       <c r="V255" s="1"/>
       <c r="W255" s="1"/>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7035,7 +7034,7 @@
       <c r="V256" s="1"/>
       <c r="W256" s="1"/>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7060,7 +7059,7 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7085,7 +7084,7 @@
       <c r="V258" s="1"/>
       <c r="W258" s="1"/>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7110,7 +7109,7 @@
       <c r="V259" s="1"/>
       <c r="W259" s="1"/>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7135,7 +7134,7 @@
       <c r="V260" s="1"/>
       <c r="W260" s="1"/>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7160,7 +7159,7 @@
       <c r="V261" s="1"/>
       <c r="W261" s="1"/>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7185,7 +7184,7 @@
       <c r="V262" s="1"/>
       <c r="W262" s="1"/>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7210,7 +7209,7 @@
       <c r="V263" s="1"/>
       <c r="W263" s="1"/>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7235,7 +7234,7 @@
       <c r="V264" s="1"/>
       <c r="W264" s="1"/>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7260,7 +7259,7 @@
       <c r="V265" s="1"/>
       <c r="W265" s="1"/>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7285,7 +7284,7 @@
       <c r="V266" s="1"/>
       <c r="W266" s="1"/>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7310,7 +7309,7 @@
       <c r="V267" s="1"/>
       <c r="W267" s="1"/>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7335,7 +7334,7 @@
       <c r="V268" s="1"/>
       <c r="W268" s="1"/>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7360,7 +7359,7 @@
       <c r="V269" s="1"/>
       <c r="W269" s="1"/>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7385,7 +7384,7 @@
       <c r="V270" s="1"/>
       <c r="W270" s="1"/>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7410,7 +7409,7 @@
       <c r="V271" s="1"/>
       <c r="W271" s="1"/>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7435,7 +7434,7 @@
       <c r="V272" s="1"/>
       <c r="W272" s="1"/>
     </row>
-    <row r="273" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7460,7 +7459,7 @@
       <c r="V273" s="1"/>
       <c r="W273" s="1"/>
     </row>
-    <row r="274" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7485,7 +7484,7 @@
       <c r="V274" s="1"/>
       <c r="W274" s="1"/>
     </row>
-    <row r="275" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7510,7 +7509,7 @@
       <c r="V275" s="1"/>
       <c r="W275" s="1"/>
     </row>
-    <row r="276" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7535,7 +7534,7 @@
       <c r="V276" s="1"/>
       <c r="W276" s="1"/>
     </row>
-    <row r="277" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7560,7 +7559,7 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
     </row>
-    <row r="278" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7585,7 +7584,7 @@
       <c r="V278" s="1"/>
       <c r="W278" s="1"/>
     </row>
-    <row r="279" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7610,7 +7609,7 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
     </row>
-    <row r="280" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7635,7 +7634,7 @@
       <c r="V280" s="1"/>
       <c r="W280" s="1"/>
     </row>
-    <row r="281" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7660,7 +7659,7 @@
       <c r="V281" s="1"/>
       <c r="W281" s="1"/>
     </row>
-    <row r="282" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7685,7 +7684,7 @@
       <c r="V282" s="1"/>
       <c r="W282" s="1"/>
     </row>
-    <row r="283" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7710,7 +7709,7 @@
       <c r="V283" s="1"/>
       <c r="W283" s="1"/>
     </row>
-    <row r="284" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7735,7 +7734,7 @@
       <c r="V284" s="1"/>
       <c r="W284" s="1"/>
     </row>
-    <row r="285" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7760,7 +7759,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
     </row>
-    <row r="286" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7799,7 +7798,7 @@
       <c r="AJ286" s="1"/>
       <c r="AK286" s="1"/>
     </row>
-    <row r="287" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7838,7 +7837,7 @@
       <c r="AJ287" s="1"/>
       <c r="AK287" s="1"/>
     </row>
-    <row r="288" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7877,7 +7876,7 @@
       <c r="AJ288" s="1"/>
       <c r="AK288" s="1"/>
     </row>
-    <row r="289" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7916,7 +7915,7 @@
       <c r="AJ289" s="1"/>
       <c r="AK289" s="1"/>
     </row>
-    <row r="290" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7955,7 +7954,7 @@
       <c r="AJ290" s="1"/>
       <c r="AK290" s="1"/>
     </row>
-    <row r="291" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7994,7 +7993,7 @@
       <c r="AJ291" s="1"/>
       <c r="AK291" s="1"/>
     </row>
-    <row r="292" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8033,7 +8032,7 @@
       <c r="AJ292" s="1"/>
       <c r="AK292" s="1"/>
     </row>
-    <row r="293" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8072,7 +8071,7 @@
       <c r="AJ293" s="1"/>
       <c r="AK293" s="1"/>
     </row>
-    <row r="294" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8111,7 +8110,7 @@
       <c r="AJ294" s="1"/>
       <c r="AK294" s="1"/>
     </row>
-    <row r="295" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8150,7 +8149,7 @@
       <c r="AJ295" s="1"/>
       <c r="AK295" s="1"/>
     </row>
-    <row r="296" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8189,7 +8188,7 @@
       <c r="AJ296" s="1"/>
       <c r="AK296" s="1"/>
     </row>
-    <row r="297" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8228,7 +8227,7 @@
       <c r="AJ297" s="1"/>
       <c r="AK297" s="1"/>
     </row>
-    <row r="298" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8267,7 +8266,7 @@
       <c r="AJ298" s="1"/>
       <c r="AK298" s="1"/>
     </row>
-    <row r="299" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8306,7 +8305,7 @@
       <c r="AJ299" s="1"/>
       <c r="AK299" s="1"/>
     </row>
-    <row r="300" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8345,7 +8344,7 @@
       <c r="AJ300" s="1"/>
       <c r="AK300" s="1"/>
     </row>
-    <row r="301" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8384,7 +8383,7 @@
       <c r="AJ301" s="1"/>
       <c r="AK301" s="1"/>
     </row>
-    <row r="302" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8423,7 +8422,7 @@
       <c r="AJ302" s="1"/>
       <c r="AK302" s="1"/>
     </row>
-    <row r="303" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8462,7 +8461,7 @@
       <c r="AJ303" s="1"/>
       <c r="AK303" s="1"/>
     </row>
-    <row r="304" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8501,7 +8500,7 @@
       <c r="AJ304" s="1"/>
       <c r="AK304" s="1"/>
     </row>
-    <row r="305" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8540,7 +8539,7 @@
       <c r="AJ305" s="1"/>
       <c r="AK305" s="1"/>
     </row>
-    <row r="306" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8579,7 +8578,7 @@
       <c r="AJ306" s="1"/>
       <c r="AK306" s="1"/>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8618,7 +8617,7 @@
       <c r="AJ307" s="1"/>
       <c r="AK307" s="1"/>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8657,7 +8656,7 @@
       <c r="AJ308" s="1"/>
       <c r="AK308" s="1"/>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8696,7 +8695,7 @@
       <c r="AJ309" s="1"/>
       <c r="AK309" s="1"/>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8735,7 +8734,7 @@
       <c r="AJ310" s="1"/>
       <c r="AK310" s="1"/>
     </row>
-    <row r="311" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8774,7 +8773,7 @@
       <c r="AJ311" s="1"/>
       <c r="AK311" s="1"/>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8813,7 +8812,7 @@
       <c r="AJ312" s="1"/>
       <c r="AK312" s="1"/>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8852,7 +8851,7 @@
       <c r="AJ313" s="1"/>
       <c r="AK313" s="1"/>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8891,7 +8890,7 @@
       <c r="AJ314" s="1"/>
       <c r="AK314" s="1"/>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8930,7 +8929,7 @@
       <c r="AJ315" s="1"/>
       <c r="AK315" s="1"/>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8969,7 +8968,7 @@
       <c r="AJ316" s="1"/>
       <c r="AK316" s="1"/>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -9008,7 +9007,7 @@
       <c r="AJ317" s="1"/>
       <c r="AK317" s="1"/>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -9047,7 +9046,7 @@
       <c r="AJ318" s="1"/>
       <c r="AK318" s="1"/>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -9086,7 +9085,7 @@
       <c r="AJ319" s="1"/>
       <c r="AK319" s="1"/>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -9125,7 +9124,7 @@
       <c r="AJ320" s="1"/>
       <c r="AK320" s="1"/>
     </row>
-    <row r="321" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -9164,7 +9163,7 @@
       <c r="AJ321" s="1"/>
       <c r="AK321" s="1"/>
     </row>
-    <row r="322" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -9203,7 +9202,7 @@
       <c r="AJ322" s="1"/>
       <c r="AK322" s="1"/>
     </row>
-    <row r="323" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9242,7 +9241,7 @@
       <c r="AJ323" s="1"/>
       <c r="AK323" s="1"/>
     </row>
-    <row r="324" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9281,7 +9280,7 @@
       <c r="AJ324" s="1"/>
       <c r="AK324" s="1"/>
     </row>
-    <row r="325" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9320,7 +9319,7 @@
       <c r="AJ325" s="1"/>
       <c r="AK325" s="1"/>
     </row>
-    <row r="326" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9359,7 +9358,7 @@
       <c r="AJ326" s="1"/>
       <c r="AK326" s="1"/>
     </row>
-    <row r="327" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9398,7 +9397,7 @@
       <c r="AJ327" s="1"/>
       <c r="AK327" s="1"/>
     </row>
-    <row r="328" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9437,7 +9436,7 @@
       <c r="AJ328" s="1"/>
       <c r="AK328" s="1"/>
     </row>
-    <row r="329" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9476,7 +9475,7 @@
       <c r="AJ329" s="1"/>
       <c r="AK329" s="1"/>
     </row>
-    <row r="330" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9515,7 +9514,7 @@
       <c r="AJ330" s="1"/>
       <c r="AK330" s="1"/>
     </row>
-    <row r="331" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9554,7 +9553,7 @@
       <c r="AJ331" s="1"/>
       <c r="AK331" s="1"/>
     </row>
-    <row r="332" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9593,7 +9592,7 @@
       <c r="AJ332" s="1"/>
       <c r="AK332" s="1"/>
     </row>
-    <row r="333" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9632,7 +9631,7 @@
       <c r="AJ333" s="1"/>
       <c r="AK333" s="1"/>
     </row>
-    <row r="334" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9671,7 +9670,7 @@
       <c r="AJ334" s="1"/>
       <c r="AK334" s="1"/>
     </row>
-    <row r="335" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9710,7 +9709,7 @@
       <c r="AJ335" s="1"/>
       <c r="AK335" s="1"/>
     </row>
-    <row r="336" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9749,7 +9748,7 @@
       <c r="AJ336" s="1"/>
       <c r="AK336" s="1"/>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9788,7 +9787,7 @@
       <c r="AJ337" s="1"/>
       <c r="AK337" s="1"/>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9827,7 +9826,7 @@
       <c r="AJ338" s="1"/>
       <c r="AK338" s="1"/>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9866,7 +9865,7 @@
       <c r="AJ339" s="1"/>
       <c r="AK339" s="1"/>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9905,7 +9904,7 @@
       <c r="AJ340" s="1"/>
       <c r="AK340" s="1"/>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9944,7 +9943,7 @@
       <c r="AJ341" s="1"/>
       <c r="AK341" s="1"/>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9983,7 +9982,7 @@
       <c r="AJ342" s="1"/>
       <c r="AK342" s="1"/>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10022,7 +10021,7 @@
       <c r="AJ343" s="1"/>
       <c r="AK343" s="1"/>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10061,7 +10060,7 @@
       <c r="AJ344" s="1"/>
       <c r="AK344" s="1"/>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10100,7 +10099,7 @@
       <c r="AJ345" s="1"/>
       <c r="AK345" s="1"/>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10139,7 +10138,7 @@
       <c r="AJ346" s="1"/>
       <c r="AK346" s="1"/>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10178,7 +10177,7 @@
       <c r="AJ347" s="1"/>
       <c r="AK347" s="1"/>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10217,7 +10216,7 @@
       <c r="AJ348" s="1"/>
       <c r="AK348" s="1"/>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10256,7 +10255,7 @@
       <c r="AJ349" s="1"/>
       <c r="AK349" s="1"/>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10295,7 +10294,7 @@
       <c r="AJ350" s="1"/>
       <c r="AK350" s="1"/>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -10334,7 +10333,7 @@
       <c r="AJ351" s="1"/>
       <c r="AK351" s="1"/>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -10373,7 +10372,7 @@
       <c r="AJ352" s="1"/>
       <c r="AK352" s="1"/>
     </row>
-    <row r="353" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -10412,7 +10411,7 @@
       <c r="AJ353" s="1"/>
       <c r="AK353" s="1"/>
     </row>
-    <row r="354" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -10451,7 +10450,7 @@
       <c r="AJ354" s="1"/>
       <c r="AK354" s="1"/>
     </row>
-    <row r="355" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -10490,7 +10489,7 @@
       <c r="AJ355" s="1"/>
       <c r="AK355" s="1"/>
     </row>
-    <row r="356" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -10529,7 +10528,7 @@
       <c r="AJ356" s="1"/>
       <c r="AK356" s="1"/>
     </row>
-    <row r="357" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -10568,7 +10567,7 @@
       <c r="AJ357" s="1"/>
       <c r="AK357" s="1"/>
     </row>
-    <row r="358" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -10607,7 +10606,7 @@
       <c r="AJ358" s="1"/>
       <c r="AK358" s="1"/>
     </row>
-    <row r="359" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -10646,7 +10645,7 @@
       <c r="AJ359" s="1"/>
       <c r="AK359" s="1"/>
     </row>
-    <row r="360" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -10685,7 +10684,7 @@
       <c r="AJ360" s="1"/>
       <c r="AK360" s="1"/>
     </row>
-    <row r="361" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -10724,7 +10723,7 @@
       <c r="AJ361" s="1"/>
       <c r="AK361" s="1"/>
     </row>
-    <row r="362" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -10763,7 +10762,7 @@
       <c r="AJ362" s="1"/>
       <c r="AK362" s="1"/>
     </row>
-    <row r="363" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -10802,7 +10801,7 @@
       <c r="AJ363" s="1"/>
       <c r="AK363" s="1"/>
     </row>
-    <row r="364" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -10841,7 +10840,7 @@
       <c r="AJ364" s="1"/>
       <c r="AK364" s="1"/>
     </row>
-    <row r="365" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -10880,7 +10879,7 @@
       <c r="AJ365" s="1"/>
       <c r="AK365" s="1"/>
     </row>
-    <row r="366" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -10919,7 +10918,7 @@
       <c r="AJ366" s="1"/>
       <c r="AK366" s="1"/>
     </row>
-    <row r="367" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10958,7 +10957,7 @@
       <c r="AJ367" s="1"/>
       <c r="AK367" s="1"/>
     </row>
-    <row r="368" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10997,7 +10996,7 @@
       <c r="AJ368" s="1"/>
       <c r="AK368" s="1"/>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11036,7 +11035,7 @@
       <c r="AJ369" s="1"/>
       <c r="AK369" s="1"/>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11075,7 +11074,7 @@
       <c r="AJ370" s="1"/>
       <c r="AK370" s="1"/>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11114,7 +11113,7 @@
       <c r="AJ371" s="1"/>
       <c r="AK371" s="1"/>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11153,7 +11152,7 @@
       <c r="AJ372" s="1"/>
       <c r="AK372" s="1"/>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11192,7 +11191,7 @@
       <c r="AJ373" s="1"/>
       <c r="AK373" s="1"/>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11231,7 +11230,7 @@
       <c r="AJ374" s="1"/>
       <c r="AK374" s="1"/>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11270,7 +11269,7 @@
       <c r="AJ375" s="1"/>
       <c r="AK375" s="1"/>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11309,7 +11308,7 @@
       <c r="AJ376" s="1"/>
       <c r="AK376" s="1"/>
     </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11348,7 +11347,7 @@
       <c r="AJ377" s="1"/>
       <c r="AK377" s="1"/>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11387,7 +11386,7 @@
       <c r="AJ378" s="1"/>
       <c r="AK378" s="1"/>
     </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11426,7 +11425,7 @@
       <c r="AJ379" s="1"/>
       <c r="AK379" s="1"/>
     </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11465,7 +11464,7 @@
       <c r="AJ380" s="1"/>
       <c r="AK380" s="1"/>
     </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11504,7 +11503,7 @@
       <c r="AJ381" s="1"/>
       <c r="AK381" s="1"/>
     </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11543,7 +11542,7 @@
       <c r="AJ382" s="1"/>
       <c r="AK382" s="1"/>
     </row>
-    <row r="383" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11582,7 +11581,7 @@
       <c r="AJ383" s="1"/>
       <c r="AK383" s="1"/>
     </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11621,7 +11620,7 @@
       <c r="AJ384" s="1"/>
       <c r="AK384" s="1"/>
     </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11660,7 +11659,7 @@
       <c r="AJ385" s="1"/>
       <c r="AK385" s="1"/>
     </row>
-    <row r="386" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11699,7 +11698,7 @@
       <c r="AJ386" s="1"/>
       <c r="AK386" s="1"/>
     </row>
-    <row r="387" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11738,7 +11737,7 @@
       <c r="AJ387" s="1"/>
       <c r="AK387" s="1"/>
     </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11777,7 +11776,7 @@
       <c r="AJ388" s="1"/>
       <c r="AK388" s="1"/>
     </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11816,7 +11815,7 @@
       <c r="AJ389" s="1"/>
       <c r="AK389" s="1"/>
     </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11855,7 +11854,7 @@
       <c r="AJ390" s="1"/>
       <c r="AK390" s="1"/>
     </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11894,7 +11893,7 @@
       <c r="AJ391" s="1"/>
       <c r="AK391" s="1"/>
     </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11933,7 +11932,7 @@
       <c r="AJ392" s="1"/>
       <c r="AK392" s="1"/>
     </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11972,7 +11971,7 @@
       <c r="AJ393" s="1"/>
       <c r="AK393" s="1"/>
     </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12011,7 +12010,7 @@
       <c r="AJ394" s="1"/>
       <c r="AK394" s="1"/>
     </row>
-    <row r="395" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12050,7 +12049,7 @@
       <c r="AJ395" s="1"/>
       <c r="AK395" s="1"/>
     </row>
-    <row r="396" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12089,7 +12088,7 @@
       <c r="AJ396" s="1"/>
       <c r="AK396" s="1"/>
     </row>
-    <row r="397" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12128,7 +12127,7 @@
       <c r="AJ397" s="1"/>
       <c r="AK397" s="1"/>
     </row>
-    <row r="398" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12167,7 +12166,7 @@
       <c r="AJ398" s="1"/>
       <c r="AK398" s="1"/>
     </row>
-    <row r="399" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12206,7 +12205,7 @@
       <c r="AJ399" s="1"/>
       <c r="AK399" s="1"/>
     </row>
-    <row r="400" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12245,7 +12244,7 @@
       <c r="AJ400" s="1"/>
       <c r="AK400" s="1"/>
     </row>
-    <row r="401" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12284,7 +12283,7 @@
       <c r="AJ401" s="1"/>
       <c r="AK401" s="1"/>
     </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12323,7 +12322,7 @@
       <c r="AJ402" s="1"/>
       <c r="AK402" s="1"/>
     </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12362,7 +12361,7 @@
       <c r="AJ403" s="1"/>
       <c r="AK403" s="1"/>
     </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12401,7 +12400,7 @@
       <c r="AJ404" s="1"/>
       <c r="AK404" s="1"/>
     </row>
-    <row r="405" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12440,7 +12439,7 @@
       <c r="AJ405" s="1"/>
       <c r="AK405" s="1"/>
     </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12479,7 +12478,7 @@
       <c r="AJ406" s="1"/>
       <c r="AK406" s="1"/>
     </row>
-    <row r="407" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12518,7 +12517,7 @@
       <c r="AJ407" s="1"/>
       <c r="AK407" s="1"/>
     </row>
-    <row r="408" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12557,7 +12556,7 @@
       <c r="AJ408" s="1"/>
       <c r="AK408" s="1"/>
     </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12596,7 +12595,7 @@
       <c r="AJ409" s="1"/>
       <c r="AK409" s="1"/>
     </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12635,7 +12634,7 @@
       <c r="AJ410" s="1"/>
       <c r="AK410" s="1"/>
     </row>
-    <row r="411" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12674,7 +12673,7 @@
       <c r="AJ411" s="1"/>
       <c r="AK411" s="1"/>
     </row>
-    <row r="412" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12713,7 +12712,7 @@
       <c r="AJ412" s="1"/>
       <c r="AK412" s="1"/>
     </row>
-    <row r="413" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12752,7 +12751,7 @@
       <c r="AJ413" s="1"/>
       <c r="AK413" s="1"/>
     </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12791,7 +12790,7 @@
       <c r="AJ414" s="1"/>
       <c r="AK414" s="1"/>
     </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12830,7 +12829,7 @@
       <c r="AJ415" s="1"/>
       <c r="AK415" s="1"/>
     </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12869,7 +12868,7 @@
       <c r="AJ416" s="1"/>
       <c r="AK416" s="1"/>
     </row>
-    <row r="417" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12908,7 +12907,7 @@
       <c r="AJ417" s="1"/>
       <c r="AK417" s="1"/>
     </row>
-    <row r="418" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12947,7 +12946,7 @@
       <c r="AJ418" s="1"/>
       <c r="AK418" s="1"/>
     </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12986,7 +12985,7 @@
       <c r="AJ419" s="1"/>
       <c r="AK419" s="1"/>
     </row>
-    <row r="420" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -13025,7 +13024,7 @@
       <c r="AJ420" s="1"/>
       <c r="AK420" s="1"/>
     </row>
-    <row r="421" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -13064,7 +13063,7 @@
       <c r="AJ421" s="1"/>
       <c r="AK421" s="1"/>
     </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -13103,7 +13102,7 @@
       <c r="AJ422" s="1"/>
       <c r="AK422" s="1"/>
     </row>
-    <row r="423" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -13142,7 +13141,7 @@
       <c r="AJ423" s="1"/>
       <c r="AK423" s="1"/>
     </row>
-    <row r="424" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -13181,7 +13180,7 @@
       <c r="AJ424" s="1"/>
       <c r="AK424" s="1"/>
     </row>
-    <row r="425" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -13220,7 +13219,7 @@
       <c r="AJ425" s="1"/>
       <c r="AK425" s="1"/>
     </row>
-    <row r="426" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -13259,7 +13258,7 @@
       <c r="AJ426" s="1"/>
       <c r="AK426" s="1"/>
     </row>
-    <row r="427" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -13298,7 +13297,7 @@
       <c r="AJ427" s="1"/>
       <c r="AK427" s="1"/>
     </row>
-    <row r="428" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -13337,7 +13336,7 @@
       <c r="AJ428" s="1"/>
       <c r="AK428" s="1"/>
     </row>
-    <row r="429" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -13376,7 +13375,7 @@
       <c r="AJ429" s="1"/>
       <c r="AK429" s="1"/>
     </row>
-    <row r="430" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -13415,7 +13414,7 @@
       <c r="AJ430" s="1"/>
       <c r="AK430" s="1"/>
     </row>
-    <row r="431" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -13454,7 +13453,7 @@
       <c r="AJ431" s="1"/>
       <c r="AK431" s="1"/>
     </row>
-    <row r="432" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -13493,7 +13492,7 @@
       <c r="AJ432" s="1"/>
       <c r="AK432" s="1"/>
     </row>
-    <row r="433" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -13532,7 +13531,7 @@
       <c r="AJ433" s="1"/>
       <c r="AK433" s="1"/>
     </row>
-    <row r="434" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -13571,7 +13570,7 @@
       <c r="AJ434" s="1"/>
       <c r="AK434" s="1"/>
     </row>
-    <row r="435" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -13610,7 +13609,7 @@
       <c r="AJ435" s="1"/>
       <c r="AK435" s="1"/>
     </row>
-    <row r="436" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -13649,7 +13648,7 @@
       <c r="AJ436" s="1"/>
       <c r="AK436" s="1"/>
     </row>
-    <row r="437" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13688,7 +13687,7 @@
       <c r="AJ437" s="1"/>
       <c r="AK437" s="1"/>
     </row>
-    <row r="438" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13727,7 +13726,7 @@
       <c r="AJ438" s="1"/>
       <c r="AK438" s="1"/>
     </row>
-    <row r="439" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13766,7 +13765,7 @@
       <c r="AJ439" s="1"/>
       <c r="AK439" s="1"/>
     </row>
-    <row r="440" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13805,7 +13804,7 @@
       <c r="AJ440" s="1"/>
       <c r="AK440" s="1"/>
     </row>
-    <row r="441" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13844,7 +13843,7 @@
       <c r="AJ441" s="1"/>
       <c r="AK441" s="1"/>
     </row>
-    <row r="442" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13883,7 +13882,7 @@
       <c r="AJ442" s="1"/>
       <c r="AK442" s="1"/>
     </row>
-    <row r="443" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13922,7 +13921,7 @@
       <c r="AJ443" s="1"/>
       <c r="AK443" s="1"/>
     </row>
-    <row r="444" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13961,7 +13960,7 @@
       <c r="AJ444" s="1"/>
       <c r="AK444" s="1"/>
     </row>
-    <row r="445" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -14000,7 +13999,7 @@
       <c r="AJ445" s="1"/>
       <c r="AK445" s="1"/>
     </row>
-    <row r="446" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -14039,7 +14038,7 @@
       <c r="AJ446" s="1"/>
       <c r="AK446" s="1"/>
     </row>
-    <row r="447" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -14078,7 +14077,7 @@
       <c r="AJ447" s="1"/>
       <c r="AK447" s="1"/>
     </row>
-    <row r="448" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -14117,7 +14116,7 @@
       <c r="AJ448" s="1"/>
       <c r="AK448" s="1"/>
     </row>
-    <row r="449" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -14156,7 +14155,7 @@
       <c r="AJ449" s="1"/>
       <c r="AK449" s="1"/>
     </row>
-    <row r="450" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -14195,7 +14194,7 @@
       <c r="AJ450" s="1"/>
       <c r="AK450" s="1"/>
     </row>
-    <row r="451" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -14234,7 +14233,7 @@
       <c r="AJ451" s="1"/>
       <c r="AK451" s="1"/>
     </row>
-    <row r="452" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -14273,7 +14272,7 @@
       <c r="AJ452" s="1"/>
       <c r="AK452" s="1"/>
     </row>
-    <row r="453" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -14312,7 +14311,7 @@
       <c r="AJ453" s="1"/>
       <c r="AK453" s="1"/>
     </row>
-    <row r="454" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -14351,7 +14350,7 @@
       <c r="AJ454" s="1"/>
       <c r="AK454" s="1"/>
     </row>
-    <row r="455" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -14390,7 +14389,7 @@
       <c r="AJ455" s="1"/>
       <c r="AK455" s="1"/>
     </row>
-    <row r="456" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -14429,7 +14428,7 @@
       <c r="AJ456" s="1"/>
       <c r="AK456" s="1"/>
     </row>
-    <row r="457" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -14468,7 +14467,7 @@
       <c r="AJ457" s="1"/>
       <c r="AK457" s="1"/>
     </row>
-    <row r="458" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -14507,7 +14506,7 @@
       <c r="AJ458" s="1"/>
       <c r="AK458" s="1"/>
     </row>
-    <row r="459" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -14546,7 +14545,7 @@
       <c r="AJ459" s="1"/>
       <c r="AK459" s="1"/>
     </row>
-    <row r="460" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -14585,7 +14584,7 @@
       <c r="AJ460" s="1"/>
       <c r="AK460" s="1"/>
     </row>
-    <row r="461" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -14624,7 +14623,7 @@
       <c r="AJ461" s="1"/>
       <c r="AK461" s="1"/>
     </row>
-    <row r="462" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -14663,7 +14662,7 @@
       <c r="AJ462" s="1"/>
       <c r="AK462" s="1"/>
     </row>
-    <row r="463" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -14702,7 +14701,7 @@
       <c r="AJ463" s="1"/>
       <c r="AK463" s="1"/>
     </row>
-    <row r="464" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -14741,7 +14740,7 @@
       <c r="AJ464" s="1"/>
       <c r="AK464" s="1"/>
     </row>
-    <row r="465" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -14780,7 +14779,7 @@
       <c r="AJ465" s="1"/>
       <c r="AK465" s="1"/>
     </row>
-    <row r="466" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -14819,7 +14818,7 @@
       <c r="AJ466" s="1"/>
       <c r="AK466" s="1"/>
     </row>
-    <row r="467" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -14858,7 +14857,7 @@
       <c r="AJ467" s="1"/>
       <c r="AK467" s="1"/>
     </row>
-    <row r="468" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -14897,7 +14896,7 @@
       <c r="AJ468" s="1"/>
       <c r="AK468" s="1"/>
     </row>
-    <row r="469" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -14936,7 +14935,7 @@
       <c r="AJ469" s="1"/>
       <c r="AK469" s="1"/>
     </row>
-    <row r="470" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -14975,7 +14974,7 @@
       <c r="AJ470" s="1"/>
       <c r="AK470" s="1"/>
     </row>
-    <row r="471" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -15014,7 +15013,7 @@
       <c r="AJ471" s="1"/>
       <c r="AK471" s="1"/>
     </row>
-    <row r="472" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -15053,7 +15052,7 @@
       <c r="AJ472" s="1"/>
       <c r="AK472" s="1"/>
     </row>
-    <row r="473" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -15092,7 +15091,7 @@
       <c r="AJ473" s="1"/>
       <c r="AK473" s="1"/>
     </row>
-    <row r="474" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -15131,7 +15130,7 @@
       <c r="AJ474" s="1"/>
       <c r="AK474" s="1"/>
     </row>
-    <row r="475" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -15170,7 +15169,7 @@
       <c r="AJ475" s="1"/>
       <c r="AK475" s="1"/>
     </row>
-    <row r="476" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -15209,7 +15208,7 @@
       <c r="AJ476" s="1"/>
       <c r="AK476" s="1"/>
     </row>
-    <row r="477" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -15248,7 +15247,7 @@
       <c r="AJ477" s="1"/>
       <c r="AK477" s="1"/>
     </row>
-    <row r="478" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -15287,7 +15286,7 @@
       <c r="AJ478" s="1"/>
       <c r="AK478" s="1"/>
     </row>
-    <row r="479" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -15326,7 +15325,7 @@
       <c r="AJ479" s="1"/>
       <c r="AK479" s="1"/>
     </row>
-    <row r="480" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -15365,7 +15364,7 @@
       <c r="AJ480" s="1"/>
       <c r="AK480" s="1"/>
     </row>
-    <row r="481" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -15404,7 +15403,7 @@
       <c r="AJ481" s="1"/>
       <c r="AK481" s="1"/>
     </row>
-    <row r="482" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -15443,7 +15442,7 @@
       <c r="AJ482" s="1"/>
       <c r="AK482" s="1"/>
     </row>
-    <row r="483" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -15482,7 +15481,7 @@
       <c r="AJ483" s="1"/>
       <c r="AK483" s="1"/>
     </row>
-    <row r="484" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -15521,7 +15520,7 @@
       <c r="AJ484" s="1"/>
       <c r="AK484" s="1"/>
     </row>
-    <row r="485" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -15560,7 +15559,7 @@
       <c r="AJ485" s="1"/>
       <c r="AK485" s="1"/>
     </row>
-    <row r="486" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -15599,7 +15598,7 @@
       <c r="AJ486" s="1"/>
       <c r="AK486" s="1"/>
     </row>
-    <row r="487" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -15638,7 +15637,7 @@
       <c r="AJ487" s="1"/>
       <c r="AK487" s="1"/>
     </row>
-    <row r="488" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -15677,7 +15676,7 @@
       <c r="AJ488" s="1"/>
       <c r="AK488" s="1"/>
     </row>
-    <row r="489" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -15716,7 +15715,7 @@
       <c r="AJ489" s="1"/>
       <c r="AK489" s="1"/>
     </row>
-    <row r="490" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -15755,7 +15754,7 @@
       <c r="AJ490" s="1"/>
       <c r="AK490" s="1"/>
     </row>
-    <row r="491" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -15794,7 +15793,7 @@
       <c r="AJ491" s="1"/>
       <c r="AK491" s="1"/>
     </row>
-    <row r="492" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -15833,7 +15832,7 @@
       <c r="AJ492" s="1"/>
       <c r="AK492" s="1"/>
     </row>
-    <row r="493" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -15872,7 +15871,7 @@
       <c r="AJ493" s="1"/>
       <c r="AK493" s="1"/>
     </row>
-    <row r="494" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -15911,7 +15910,7 @@
       <c r="AJ494" s="1"/>
       <c r="AK494" s="1"/>
     </row>
-    <row r="495" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -15950,7 +15949,7 @@
       <c r="AJ495" s="1"/>
       <c r="AK495" s="1"/>
     </row>
-    <row r="496" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -15989,7 +15988,7 @@
       <c r="AJ496" s="1"/>
       <c r="AK496" s="1"/>
     </row>
-    <row r="497" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -16028,7 +16027,7 @@
       <c r="AJ497" s="1"/>
       <c r="AK497" s="1"/>
     </row>
-    <row r="498" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -16067,7 +16066,7 @@
       <c r="AJ498" s="1"/>
       <c r="AK498" s="1"/>
     </row>
-    <row r="499" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -16106,7 +16105,7 @@
       <c r="AJ499" s="1"/>
       <c r="AK499" s="1"/>
     </row>
-    <row r="500" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -16145,7 +16144,7 @@
       <c r="AJ500" s="1"/>
       <c r="AK500" s="1"/>
     </row>
-    <row r="501" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -16184,7 +16183,7 @@
       <c r="AJ501" s="1"/>
       <c r="AK501" s="1"/>
     </row>
-    <row r="502" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -16223,7 +16222,7 @@
       <c r="AJ502" s="1"/>
       <c r="AK502" s="1"/>
     </row>
-    <row r="503" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -16262,7 +16261,7 @@
       <c r="AJ503" s="1"/>
       <c r="AK503" s="1"/>
     </row>
-    <row r="504" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -16301,7 +16300,7 @@
       <c r="AJ504" s="1"/>
       <c r="AK504" s="1"/>
     </row>
-    <row r="505" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -16340,7 +16339,7 @@
       <c r="AJ505" s="1"/>
       <c r="AK505" s="1"/>
     </row>
-    <row r="506" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -16379,7 +16378,7 @@
       <c r="AJ506" s="1"/>
       <c r="AK506" s="1"/>
     </row>
-    <row r="507" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -16418,7 +16417,7 @@
       <c r="AJ507" s="1"/>
       <c r="AK507" s="1"/>
     </row>
-    <row r="508" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -16457,7 +16456,7 @@
       <c r="AJ508" s="1"/>
       <c r="AK508" s="1"/>
     </row>
-    <row r="509" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -16496,7 +16495,7 @@
       <c r="AJ509" s="1"/>
       <c r="AK509" s="1"/>
     </row>
-    <row r="510" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -16535,7 +16534,7 @@
       <c r="AJ510" s="1"/>
       <c r="AK510" s="1"/>
     </row>
-    <row r="511" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -16574,7 +16573,7 @@
       <c r="AJ511" s="1"/>
       <c r="AK511" s="1"/>
     </row>
-    <row r="512" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -16613,7 +16612,7 @@
       <c r="AJ512" s="1"/>
       <c r="AK512" s="1"/>
     </row>
-    <row r="513" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -16652,7 +16651,7 @@
       <c r="AJ513" s="1"/>
       <c r="AK513" s="1"/>
     </row>
-    <row r="514" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -16691,7 +16690,7 @@
       <c r="AJ514" s="1"/>
       <c r="AK514" s="1"/>
     </row>
-    <row r="515" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -16730,7 +16729,7 @@
       <c r="AJ515" s="1"/>
       <c r="AK515" s="1"/>
     </row>
-    <row r="516" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -16769,7 +16768,7 @@
       <c r="AJ516" s="1"/>
       <c r="AK516" s="1"/>
     </row>
-    <row r="517" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -16808,7 +16807,7 @@
       <c r="AJ517" s="1"/>
       <c r="AK517" s="1"/>
     </row>
-    <row r="518" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -16847,7 +16846,7 @@
       <c r="AJ518" s="1"/>
       <c r="AK518" s="1"/>
     </row>
-    <row r="519" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -16886,7 +16885,7 @@
       <c r="AJ519" s="1"/>
       <c r="AK519" s="1"/>
     </row>
-    <row r="520" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -16925,7 +16924,7 @@
       <c r="AJ520" s="1"/>
       <c r="AK520" s="1"/>
     </row>
-    <row r="521" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -16964,7 +16963,7 @@
       <c r="AJ521" s="1"/>
       <c r="AK521" s="1"/>
     </row>
-    <row r="522" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -17003,7 +17002,7 @@
       <c r="AJ522" s="1"/>
       <c r="AK522" s="1"/>
     </row>
-    <row r="523" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -17042,7 +17041,7 @@
       <c r="AJ523" s="1"/>
       <c r="AK523" s="1"/>
     </row>
-    <row r="524" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -17081,7 +17080,7 @@
       <c r="AJ524" s="1"/>
       <c r="AK524" s="1"/>
     </row>
-    <row r="525" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -17120,7 +17119,7 @@
       <c r="AJ525" s="1"/>
       <c r="AK525" s="1"/>
     </row>
-    <row r="526" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -17159,7 +17158,7 @@
       <c r="AJ526" s="1"/>
       <c r="AK526" s="1"/>
     </row>
-    <row r="527" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -17198,7 +17197,7 @@
       <c r="AJ527" s="1"/>
       <c r="AK527" s="1"/>
     </row>
-    <row r="528" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -17237,7 +17236,7 @@
       <c r="AJ528" s="1"/>
       <c r="AK528" s="1"/>
     </row>
-    <row r="529" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -17276,7 +17275,7 @@
       <c r="AJ529" s="1"/>
       <c r="AK529" s="1"/>
     </row>
-    <row r="530" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -17315,7 +17314,7 @@
       <c r="AJ530" s="1"/>
       <c r="AK530" s="1"/>
     </row>
-    <row r="531" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -17354,7 +17353,7 @@
       <c r="AJ531" s="1"/>
       <c r="AK531" s="1"/>
     </row>
-    <row r="532" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -17393,7 +17392,7 @@
       <c r="AJ532" s="1"/>
       <c r="AK532" s="1"/>
     </row>
-    <row r="533" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -17432,7 +17431,7 @@
       <c r="AJ533" s="1"/>
       <c r="AK533" s="1"/>
     </row>
-    <row r="534" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -17471,7 +17470,7 @@
       <c r="AJ534" s="1"/>
       <c r="AK534" s="1"/>
     </row>
-    <row r="535" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -17510,7 +17509,7 @@
       <c r="AJ535" s="1"/>
       <c r="AK535" s="1"/>
     </row>
-    <row r="536" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -17549,7 +17548,7 @@
       <c r="AJ536" s="1"/>
       <c r="AK536" s="1"/>
     </row>
-    <row r="537" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -17588,7 +17587,7 @@
       <c r="AJ537" s="1"/>
       <c r="AK537" s="1"/>
     </row>
-    <row r="538" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -17627,7 +17626,7 @@
       <c r="AJ538" s="1"/>
       <c r="AK538" s="1"/>
     </row>
-    <row r="539" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -17666,7 +17665,7 @@
       <c r="AJ539" s="1"/>
       <c r="AK539" s="1"/>
     </row>
-    <row r="540" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -17705,7 +17704,7 @@
       <c r="AJ540" s="1"/>
       <c r="AK540" s="1"/>
     </row>
-    <row r="541" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -17744,7 +17743,7 @@
       <c r="AJ541" s="1"/>
       <c r="AK541" s="1"/>
     </row>
-    <row r="542" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -17783,7 +17782,7 @@
       <c r="AJ542" s="1"/>
       <c r="AK542" s="1"/>
     </row>
-    <row r="543" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -17822,7 +17821,7 @@
       <c r="AJ543" s="1"/>
       <c r="AK543" s="1"/>
     </row>
-    <row r="544" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -17861,7 +17860,7 @@
       <c r="AJ544" s="1"/>
       <c r="AK544" s="1"/>
     </row>
-    <row r="545" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -17900,7 +17899,7 @@
       <c r="AJ545" s="1"/>
       <c r="AK545" s="1"/>
     </row>
-    <row r="546" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -17939,7 +17938,7 @@
       <c r="AJ546" s="1"/>
       <c r="AK546" s="1"/>
     </row>
-    <row r="547" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -17978,7 +17977,7 @@
       <c r="AJ547" s="1"/>
       <c r="AK547" s="1"/>
     </row>
-    <row r="548" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -18017,7 +18016,7 @@
       <c r="AJ548" s="1"/>
       <c r="AK548" s="1"/>
     </row>
-    <row r="549" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -18056,7 +18055,7 @@
       <c r="AJ549" s="1"/>
       <c r="AK549" s="1"/>
     </row>
-    <row r="550" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -18095,7 +18094,7 @@
       <c r="AJ550" s="1"/>
       <c r="AK550" s="1"/>
     </row>
-    <row r="551" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -18134,7 +18133,7 @@
       <c r="AJ551" s="1"/>
       <c r="AK551" s="1"/>
     </row>
-    <row r="552" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -18173,7 +18172,7 @@
       <c r="AJ552" s="1"/>
       <c r="AK552" s="1"/>
     </row>
-    <row r="553" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -18212,7 +18211,7 @@
       <c r="AJ553" s="1"/>
       <c r="AK553" s="1"/>
     </row>
-    <row r="554" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -18251,7 +18250,7 @@
       <c r="AJ554" s="1"/>
       <c r="AK554" s="1"/>
     </row>
-    <row r="555" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -18290,7 +18289,7 @@
       <c r="AJ555" s="1"/>
       <c r="AK555" s="1"/>
     </row>
-    <row r="556" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -18329,7 +18328,7 @@
       <c r="AJ556" s="1"/>
       <c r="AK556" s="1"/>
     </row>
-    <row r="557" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -18368,7 +18367,7 @@
       <c r="AJ557" s="1"/>
       <c r="AK557" s="1"/>
     </row>
-    <row r="558" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -18407,7 +18406,7 @@
       <c r="AJ558" s="1"/>
       <c r="AK558" s="1"/>
     </row>
-    <row r="559" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -18446,7 +18445,7 @@
       <c r="AJ559" s="1"/>
       <c r="AK559" s="1"/>
     </row>
-    <row r="560" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -18485,7 +18484,7 @@
       <c r="AJ560" s="1"/>
       <c r="AK560" s="1"/>
     </row>
-    <row r="561" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -18524,7 +18523,7 @@
       <c r="AJ561" s="1"/>
       <c r="AK561" s="1"/>
     </row>
-    <row r="562" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -18563,7 +18562,7 @@
       <c r="AJ562" s="1"/>
       <c r="AK562" s="1"/>
     </row>
-    <row r="563" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -18602,7 +18601,7 @@
       <c r="AJ563" s="1"/>
       <c r="AK563" s="1"/>
     </row>
-    <row r="564" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -18641,7 +18640,7 @@
       <c r="AJ564" s="1"/>
       <c r="AK564" s="1"/>
     </row>
-    <row r="565" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -18680,7 +18679,7 @@
       <c r="AJ565" s="1"/>
       <c r="AK565" s="1"/>
     </row>
-    <row r="566" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -18719,7 +18718,7 @@
       <c r="AJ566" s="1"/>
       <c r="AK566" s="1"/>
     </row>
-    <row r="567" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -18758,7 +18757,7 @@
       <c r="AJ567" s="1"/>
       <c r="AK567" s="1"/>
     </row>
-    <row r="568" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -18797,7 +18796,7 @@
       <c r="AJ568" s="1"/>
       <c r="AK568" s="1"/>
     </row>
-    <row r="569" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -18836,7 +18835,7 @@
       <c r="AJ569" s="1"/>
       <c r="AK569" s="1"/>
     </row>
-    <row r="570" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -18875,7 +18874,7 @@
       <c r="AJ570" s="1"/>
       <c r="AK570" s="1"/>
     </row>
-    <row r="571" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -18914,7 +18913,7 @@
       <c r="AJ571" s="1"/>
       <c r="AK571" s="1"/>
     </row>
-    <row r="572" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -18953,7 +18952,7 @@
       <c r="AJ572" s="1"/>
       <c r="AK572" s="1"/>
     </row>
-    <row r="573" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -18992,7 +18991,7 @@
       <c r="AJ573" s="1"/>
       <c r="AK573" s="1"/>
     </row>
-    <row r="574" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -19031,7 +19030,7 @@
       <c r="AJ574" s="1"/>
       <c r="AK574" s="1"/>
     </row>
-    <row r="575" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -19070,7 +19069,7 @@
       <c r="AJ575" s="1"/>
       <c r="AK575" s="1"/>
     </row>
-    <row r="576" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -19109,7 +19108,7 @@
       <c r="AJ576" s="1"/>
       <c r="AK576" s="1"/>
     </row>
-    <row r="577" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -19148,7 +19147,7 @@
       <c r="AJ577" s="1"/>
       <c r="AK577" s="1"/>
     </row>
-    <row r="578" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -19187,7 +19186,7 @@
       <c r="AJ578" s="1"/>
       <c r="AK578" s="1"/>
     </row>
-    <row r="579" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -19226,7 +19225,7 @@
       <c r="AJ579" s="1"/>
       <c r="AK579" s="1"/>
     </row>
-    <row r="580" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -19265,7 +19264,7 @@
       <c r="AJ580" s="1"/>
       <c r="AK580" s="1"/>
     </row>
-    <row r="581" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -19304,7 +19303,7 @@
       <c r="AJ581" s="1"/>
       <c r="AK581" s="1"/>
     </row>
-    <row r="582" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -19343,7 +19342,7 @@
       <c r="AJ582" s="1"/>
       <c r="AK582" s="1"/>
     </row>
-    <row r="583" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -19382,7 +19381,7 @@
       <c r="AJ583" s="1"/>
       <c r="AK583" s="1"/>
     </row>
-    <row r="584" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -19421,7 +19420,7 @@
       <c r="AJ584" s="1"/>
       <c r="AK584" s="1"/>
     </row>
-    <row r="585" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -19460,7 +19459,7 @@
       <c r="AJ585" s="1"/>
       <c r="AK585" s="1"/>
     </row>
-    <row r="586" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -19499,7 +19498,7 @@
       <c r="AJ586" s="1"/>
       <c r="AK586" s="1"/>
     </row>
-    <row r="587" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -19538,7 +19537,7 @@
       <c r="AJ587" s="1"/>
       <c r="AK587" s="1"/>
     </row>
-    <row r="588" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -19577,7 +19576,7 @@
       <c r="AJ588" s="1"/>
       <c r="AK588" s="1"/>
     </row>
-    <row r="589" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -19616,7 +19615,7 @@
       <c r="AJ589" s="1"/>
       <c r="AK589" s="1"/>
     </row>
-    <row r="590" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -19655,7 +19654,7 @@
       <c r="AJ590" s="1"/>
       <c r="AK590" s="1"/>
     </row>
-    <row r="591" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -19694,7 +19693,7 @@
       <c r="AJ591" s="1"/>
       <c r="AK591" s="1"/>
     </row>
-    <row r="592" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -19733,7 +19732,7 @@
       <c r="AJ592" s="1"/>
       <c r="AK592" s="1"/>
     </row>
-    <row r="593" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -19772,7 +19771,7 @@
       <c r="AJ593" s="1"/>
       <c r="AK593" s="1"/>
     </row>
-    <row r="594" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -19811,7 +19810,7 @@
       <c r="AJ594" s="1"/>
       <c r="AK594" s="1"/>
     </row>
-    <row r="595" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -19850,7 +19849,7 @@
       <c r="AJ595" s="1"/>
       <c r="AK595" s="1"/>
     </row>
-    <row r="596" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -19889,7 +19888,7 @@
       <c r="AJ596" s="1"/>
       <c r="AK596" s="1"/>
     </row>
-    <row r="597" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -19928,7 +19927,7 @@
       <c r="AJ597" s="1"/>
       <c r="AK597" s="1"/>
     </row>
-    <row r="598" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -19967,7 +19966,7 @@
       <c r="AJ598" s="1"/>
       <c r="AK598" s="1"/>
     </row>
-    <row r="599" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -20006,7 +20005,7 @@
       <c r="AJ599" s="1"/>
       <c r="AK599" s="1"/>
     </row>
-    <row r="600" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -20045,7 +20044,7 @@
       <c r="AJ600" s="1"/>
       <c r="AK600" s="1"/>
     </row>
-    <row r="601" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -20084,7 +20083,7 @@
       <c r="AJ601" s="1"/>
       <c r="AK601" s="1"/>
     </row>
-    <row r="602" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -20123,7 +20122,7 @@
       <c r="AJ602" s="1"/>
       <c r="AK602" s="1"/>
     </row>
-    <row r="603" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -20162,7 +20161,7 @@
       <c r="AJ603" s="1"/>
       <c r="AK603" s="1"/>
     </row>
-    <row r="604" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -20201,7 +20200,7 @@
       <c r="AJ604" s="1"/>
       <c r="AK604" s="1"/>
     </row>
-    <row r="605" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -20240,7 +20239,7 @@
       <c r="AJ605" s="1"/>
       <c r="AK605" s="1"/>
     </row>
-    <row r="606" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -20279,7 +20278,7 @@
       <c r="AJ606" s="1"/>
       <c r="AK606" s="1"/>
     </row>
-    <row r="607" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -20318,7 +20317,7 @@
       <c r="AJ607" s="1"/>
       <c r="AK607" s="1"/>
     </row>
-    <row r="608" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -20357,7 +20356,7 @@
       <c r="AJ608" s="1"/>
       <c r="AK608" s="1"/>
     </row>
-    <row r="609" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -20396,7 +20395,7 @@
       <c r="AJ609" s="1"/>
       <c r="AK609" s="1"/>
     </row>
-    <row r="610" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -20435,7 +20434,7 @@
       <c r="AJ610" s="1"/>
       <c r="AK610" s="1"/>
     </row>
-    <row r="611" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -20474,7 +20473,7 @@
       <c r="AJ611" s="1"/>
       <c r="AK611" s="1"/>
     </row>
-    <row r="612" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -20513,7 +20512,7 @@
       <c r="AJ612" s="1"/>
       <c r="AK612" s="1"/>
     </row>
-    <row r="613" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -20552,7 +20551,7 @@
       <c r="AJ613" s="1"/>
       <c r="AK613" s="1"/>
     </row>
-    <row r="614" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -20591,7 +20590,7 @@
       <c r="AJ614" s="1"/>
       <c r="AK614" s="1"/>
     </row>
-    <row r="615" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -20630,7 +20629,7 @@
       <c r="AJ615" s="1"/>
       <c r="AK615" s="1"/>
     </row>
-    <row r="616" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -20669,7 +20668,7 @@
       <c r="AJ616" s="1"/>
       <c r="AK616" s="1"/>
     </row>
-    <row r="617" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -20708,7 +20707,7 @@
       <c r="AJ617" s="1"/>
       <c r="AK617" s="1"/>
     </row>
-    <row r="618" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -20747,7 +20746,7 @@
       <c r="AJ618" s="1"/>
       <c r="AK618" s="1"/>
     </row>
-    <row r="619" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -20786,7 +20785,7 @@
       <c r="AJ619" s="1"/>
       <c r="AK619" s="1"/>
     </row>
-    <row r="620" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -20825,7 +20824,7 @@
       <c r="AJ620" s="1"/>
       <c r="AK620" s="1"/>
     </row>
-    <row r="621" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -20864,7 +20863,7 @@
       <c r="AJ621" s="1"/>
       <c r="AK621" s="1"/>
     </row>
-    <row r="622" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -20903,7 +20902,7 @@
       <c r="AJ622" s="1"/>
       <c r="AK622" s="1"/>
     </row>
-    <row r="623" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -20942,7 +20941,7 @@
       <c r="AJ623" s="1"/>
       <c r="AK623" s="1"/>
     </row>
-    <row r="624" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -20981,7 +20980,7 @@
       <c r="AJ624" s="1"/>
       <c r="AK624" s="1"/>
     </row>
-    <row r="625" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -21020,7 +21019,7 @@
       <c r="AJ625" s="1"/>
       <c r="AK625" s="1"/>
     </row>
-    <row r="626" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -21059,7 +21058,7 @@
       <c r="AJ626" s="1"/>
       <c r="AK626" s="1"/>
     </row>
-    <row r="627" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -21098,7 +21097,7 @@
       <c r="AJ627" s="1"/>
       <c r="AK627" s="1"/>
     </row>
-    <row r="628" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -21137,7 +21136,7 @@
       <c r="AJ628" s="1"/>
       <c r="AK628" s="1"/>
     </row>
-    <row r="629" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -21176,7 +21175,7 @@
       <c r="AJ629" s="1"/>
       <c r="AK629" s="1"/>
     </row>
-    <row r="630" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -21215,7 +21214,7 @@
       <c r="AJ630" s="1"/>
       <c r="AK630" s="1"/>
     </row>
-    <row r="631" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -21254,7 +21253,7 @@
       <c r="AJ631" s="1"/>
       <c r="AK631" s="1"/>
     </row>
-    <row r="632" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -21293,7 +21292,7 @@
       <c r="AJ632" s="1"/>
       <c r="AK632" s="1"/>
     </row>
-    <row r="633" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -21332,7 +21331,7 @@
       <c r="AJ633" s="1"/>
       <c r="AK633" s="1"/>
     </row>
-    <row r="634" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -21371,7 +21370,7 @@
       <c r="AJ634" s="1"/>
       <c r="AK634" s="1"/>
     </row>
-    <row r="635" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -21410,7 +21409,7 @@
       <c r="AJ635" s="1"/>
       <c r="AK635" s="1"/>
     </row>
-    <row r="636" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -21449,7 +21448,7 @@
       <c r="AJ636" s="1"/>
       <c r="AK636" s="1"/>
     </row>
-    <row r="637" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -21488,7 +21487,7 @@
       <c r="AJ637" s="1"/>
       <c r="AK637" s="1"/>
     </row>
-    <row r="638" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -21527,7 +21526,7 @@
       <c r="AJ638" s="1"/>
       <c r="AK638" s="1"/>
     </row>
-    <row r="639" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -21566,7 +21565,7 @@
       <c r="AJ639" s="1"/>
       <c r="AK639" s="1"/>
     </row>
-    <row r="640" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -21605,7 +21604,7 @@
       <c r="AJ640" s="1"/>
       <c r="AK640" s="1"/>
     </row>
-    <row r="641" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -21644,7 +21643,7 @@
       <c r="AJ641" s="1"/>
       <c r="AK641" s="1"/>
     </row>
-    <row r="642" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -21683,7 +21682,7 @@
       <c r="AJ642" s="1"/>
       <c r="AK642" s="1"/>
     </row>
-    <row r="643" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -21722,7 +21721,7 @@
       <c r="AJ643" s="1"/>
       <c r="AK643" s="1"/>
     </row>
-    <row r="644" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -21761,7 +21760,7 @@
       <c r="AJ644" s="1"/>
       <c r="AK644" s="1"/>
     </row>
-    <row r="645" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -21800,7 +21799,7 @@
       <c r="AJ645" s="1"/>
       <c r="AK645" s="1"/>
     </row>
-    <row r="646" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -21839,7 +21838,7 @@
       <c r="AJ646" s="1"/>
       <c r="AK646" s="1"/>
     </row>
-    <row r="647" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -21878,7 +21877,7 @@
       <c r="AJ647" s="1"/>
       <c r="AK647" s="1"/>
     </row>
-    <row r="648" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -21917,7 +21916,7 @@
       <c r="AJ648" s="1"/>
       <c r="AK648" s="1"/>
     </row>
-    <row r="649" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -21956,7 +21955,7 @@
       <c r="AJ649" s="1"/>
       <c r="AK649" s="1"/>
     </row>
-    <row r="650" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -21995,7 +21994,7 @@
       <c r="AJ650" s="1"/>
       <c r="AK650" s="1"/>
     </row>
-    <row r="651" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -22034,7 +22033,7 @@
       <c r="AJ651" s="1"/>
       <c r="AK651" s="1"/>
     </row>
-    <row r="652" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -22073,7 +22072,7 @@
       <c r="AJ652" s="1"/>
       <c r="AK652" s="1"/>
     </row>
-    <row r="653" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -22112,7 +22111,7 @@
       <c r="AJ653" s="1"/>
       <c r="AK653" s="1"/>
     </row>
-    <row r="654" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -22151,7 +22150,7 @@
       <c r="AJ654" s="1"/>
       <c r="AK654" s="1"/>
     </row>
-    <row r="655" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -22190,7 +22189,7 @@
       <c r="AJ655" s="1"/>
       <c r="AK655" s="1"/>
     </row>
-    <row r="656" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -22229,7 +22228,7 @@
       <c r="AJ656" s="1"/>
       <c r="AK656" s="1"/>
     </row>
-    <row r="657" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -22268,7 +22267,7 @@
       <c r="AJ657" s="1"/>
       <c r="AK657" s="1"/>
     </row>
-    <row r="658" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -22307,7 +22306,7 @@
       <c r="AJ658" s="1"/>
       <c r="AK658" s="1"/>
     </row>
-    <row r="659" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -22346,7 +22345,7 @@
       <c r="AJ659" s="1"/>
       <c r="AK659" s="1"/>
     </row>
-    <row r="660" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -22385,7 +22384,7 @@
       <c r="AJ660" s="1"/>
       <c r="AK660" s="1"/>
     </row>
-    <row r="661" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -22424,7 +22423,7 @@
       <c r="AJ661" s="1"/>
       <c r="AK661" s="1"/>
     </row>
-    <row r="662" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -22463,7 +22462,7 @@
       <c r="AJ662" s="1"/>
       <c r="AK662" s="1"/>
     </row>
-    <row r="663" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -22502,7 +22501,7 @@
       <c r="AJ663" s="1"/>
       <c r="AK663" s="1"/>
     </row>
-    <row r="664" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -22541,7 +22540,7 @@
       <c r="AJ664" s="1"/>
       <c r="AK664" s="1"/>
     </row>
-    <row r="665" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -22580,7 +22579,7 @@
       <c r="AJ665" s="1"/>
       <c r="AK665" s="1"/>
     </row>
-    <row r="666" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -22619,7 +22618,7 @@
       <c r="AJ666" s="1"/>
       <c r="AK666" s="1"/>
     </row>
-    <row r="667" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -22658,7 +22657,7 @@
       <c r="AJ667" s="1"/>
       <c r="AK667" s="1"/>
     </row>
-    <row r="668" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -22697,7 +22696,7 @@
       <c r="AJ668" s="1"/>
       <c r="AK668" s="1"/>
     </row>
-    <row r="669" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -22736,7 +22735,7 @@
       <c r="AJ669" s="1"/>
       <c r="AK669" s="1"/>
     </row>
-    <row r="670" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -22775,7 +22774,7 @@
       <c r="AJ670" s="1"/>
       <c r="AK670" s="1"/>
     </row>
-    <row r="671" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -22814,7 +22813,7 @@
       <c r="AJ671" s="1"/>
       <c r="AK671" s="1"/>
     </row>
-    <row r="672" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -22853,7 +22852,7 @@
       <c r="AJ672" s="1"/>
       <c r="AK672" s="1"/>
     </row>
-    <row r="673" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -22892,7 +22891,7 @@
       <c r="AJ673" s="1"/>
       <c r="AK673" s="1"/>
     </row>
-    <row r="674" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -22931,7 +22930,7 @@
       <c r="AJ674" s="1"/>
       <c r="AK674" s="1"/>
     </row>
-    <row r="675" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -22970,7 +22969,7 @@
       <c r="AJ675" s="1"/>
       <c r="AK675" s="1"/>
     </row>
-    <row r="676" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -23009,7 +23008,7 @@
       <c r="AJ676" s="1"/>
       <c r="AK676" s="1"/>
     </row>
-    <row r="677" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -23048,7 +23047,7 @@
       <c r="AJ677" s="1"/>
       <c r="AK677" s="1"/>
     </row>
-    <row r="678" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -23087,7 +23086,7 @@
       <c r="AJ678" s="1"/>
       <c r="AK678" s="1"/>
     </row>
-    <row r="679" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -23126,7 +23125,7 @@
       <c r="AJ679" s="1"/>
       <c r="AK679" s="1"/>
     </row>
-    <row r="680" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -23165,7 +23164,7 @@
       <c r="AJ680" s="1"/>
       <c r="AK680" s="1"/>
     </row>
-    <row r="681" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -23204,7 +23203,7 @@
       <c r="AJ681" s="1"/>
       <c r="AK681" s="1"/>
     </row>
-    <row r="682" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -23243,7 +23242,7 @@
       <c r="AJ682" s="1"/>
       <c r="AK682" s="1"/>
     </row>
-    <row r="683" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -23282,7 +23281,7 @@
       <c r="AJ683" s="1"/>
       <c r="AK683" s="1"/>
     </row>
-    <row r="684" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -23321,7 +23320,7 @@
       <c r="AJ684" s="1"/>
       <c r="AK684" s="1"/>
     </row>
-    <row r="685" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -23360,7 +23359,7 @@
       <c r="AJ685" s="1"/>
       <c r="AK685" s="1"/>
     </row>
-    <row r="686" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -23399,7 +23398,7 @@
       <c r="AJ686" s="1"/>
       <c r="AK686" s="1"/>
     </row>
-    <row r="687" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -23438,7 +23437,7 @@
       <c r="AJ687" s="1"/>
       <c r="AK687" s="1"/>
     </row>
-    <row r="688" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -23477,7 +23476,7 @@
       <c r="AJ688" s="1"/>
       <c r="AK688" s="1"/>
     </row>
-    <row r="689" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -23516,7 +23515,7 @@
       <c r="AJ689" s="1"/>
       <c r="AK689" s="1"/>
     </row>
-    <row r="690" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -23555,7 +23554,7 @@
       <c r="AJ690" s="1"/>
       <c r="AK690" s="1"/>
     </row>
-    <row r="691" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -23594,7 +23593,7 @@
       <c r="AJ691" s="1"/>
       <c r="AK691" s="1"/>
     </row>
-    <row r="692" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -23633,7 +23632,7 @@
       <c r="AJ692" s="1"/>
       <c r="AK692" s="1"/>
     </row>
-    <row r="693" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -23672,7 +23671,7 @@
       <c r="AJ693" s="1"/>
       <c r="AK693" s="1"/>
     </row>
-    <row r="694" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -23711,7 +23710,7 @@
       <c r="AJ694" s="1"/>
       <c r="AK694" s="1"/>
     </row>
-    <row r="695" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -23750,7 +23749,7 @@
       <c r="AJ695" s="1"/>
       <c r="AK695" s="1"/>
     </row>
-    <row r="696" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -23789,7 +23788,7 @@
       <c r="AJ696" s="1"/>
       <c r="AK696" s="1"/>
     </row>
-    <row r="697" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -23828,7 +23827,7 @@
       <c r="AJ697" s="1"/>
       <c r="AK697" s="1"/>
     </row>
-    <row r="698" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -23867,7 +23866,7 @@
       <c r="AJ698" s="1"/>
       <c r="AK698" s="1"/>
     </row>
-    <row r="699" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -23906,7 +23905,7 @@
       <c r="AJ699" s="1"/>
       <c r="AK699" s="1"/>
     </row>
-    <row r="700" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -23945,7 +23944,7 @@
       <c r="AJ700" s="1"/>
       <c r="AK700" s="1"/>
     </row>
-    <row r="701" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -23984,7 +23983,7 @@
       <c r="AJ701" s="1"/>
       <c r="AK701" s="1"/>
     </row>
-    <row r="702" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -24023,7 +24022,7 @@
       <c r="AJ702" s="1"/>
       <c r="AK702" s="1"/>
     </row>
-    <row r="703" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -24062,7 +24061,7 @@
       <c r="AJ703" s="1"/>
       <c r="AK703" s="1"/>
     </row>
-    <row r="704" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -24101,7 +24100,7 @@
       <c r="AJ704" s="1"/>
       <c r="AK704" s="1"/>
     </row>
-    <row r="705" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -24140,7 +24139,7 @@
       <c r="AJ705" s="1"/>
       <c r="AK705" s="1"/>
     </row>
-    <row r="706" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -24179,7 +24178,7 @@
       <c r="AJ706" s="1"/>
       <c r="AK706" s="1"/>
     </row>
-    <row r="707" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -24218,7 +24217,7 @@
       <c r="AJ707" s="1"/>
       <c r="AK707" s="1"/>
     </row>
-    <row r="708" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -24257,7 +24256,7 @@
       <c r="AJ708" s="1"/>
       <c r="AK708" s="1"/>
     </row>
-    <row r="709" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -24296,7 +24295,7 @@
       <c r="AJ709" s="1"/>
       <c r="AK709" s="1"/>
     </row>
-    <row r="710" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -24335,7 +24334,7 @@
       <c r="AJ710" s="1"/>
       <c r="AK710" s="1"/>
     </row>
-    <row r="711" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -24374,7 +24373,7 @@
       <c r="AJ711" s="1"/>
       <c r="AK711" s="1"/>
     </row>
-    <row r="712" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -24413,7 +24412,7 @@
       <c r="AJ712" s="1"/>
       <c r="AK712" s="1"/>
     </row>
-    <row r="713" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -24452,7 +24451,7 @@
       <c r="AJ713" s="1"/>
       <c r="AK713" s="1"/>
     </row>
-    <row r="714" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -24491,7 +24490,7 @@
       <c r="AJ714" s="1"/>
       <c r="AK714" s="1"/>
     </row>
-    <row r="715" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -24530,7 +24529,7 @@
       <c r="AJ715" s="1"/>
       <c r="AK715" s="1"/>
     </row>
-    <row r="716" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -24569,7 +24568,7 @@
       <c r="AJ716" s="1"/>
       <c r="AK716" s="1"/>
     </row>
-    <row r="717" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -24608,7 +24607,7 @@
       <c r="AJ717" s="1"/>
       <c r="AK717" s="1"/>
     </row>
-    <row r="718" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -24647,7 +24646,7 @@
       <c r="AJ718" s="1"/>
       <c r="AK718" s="1"/>
     </row>
-    <row r="719" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -24686,7 +24685,7 @@
       <c r="AJ719" s="1"/>
       <c r="AK719" s="1"/>
     </row>
-    <row r="720" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -24725,7 +24724,7 @@
       <c r="AJ720" s="1"/>
       <c r="AK720" s="1"/>
     </row>
-    <row r="721" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -24764,7 +24763,7 @@
       <c r="AJ721" s="1"/>
       <c r="AK721" s="1"/>
     </row>
-    <row r="722" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -24803,7 +24802,7 @@
       <c r="AJ722" s="1"/>
       <c r="AK722" s="1"/>
     </row>
-    <row r="723" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -24842,7 +24841,7 @@
       <c r="AJ723" s="1"/>
       <c r="AK723" s="1"/>
     </row>
-    <row r="724" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -24881,7 +24880,7 @@
       <c r="AJ724" s="1"/>
       <c r="AK724" s="1"/>
     </row>
-    <row r="725" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -24920,7 +24919,7 @@
       <c r="AJ725" s="1"/>
       <c r="AK725" s="1"/>
     </row>
-    <row r="726" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -24959,7 +24958,7 @@
       <c r="AJ726" s="1"/>
       <c r="AK726" s="1"/>
     </row>
-    <row r="727" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -24998,7 +24997,7 @@
       <c r="AJ727" s="1"/>
       <c r="AK727" s="1"/>
     </row>
-    <row r="728" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -25037,7 +25036,7 @@
       <c r="AJ728" s="1"/>
       <c r="AK728" s="1"/>
     </row>
-    <row r="729" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -25076,7 +25075,7 @@
       <c r="AJ729" s="1"/>
       <c r="AK729" s="1"/>
     </row>
-    <row r="730" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -25115,7 +25114,7 @@
       <c r="AJ730" s="1"/>
       <c r="AK730" s="1"/>
     </row>
-    <row r="731" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -25154,7 +25153,7 @@
       <c r="AJ731" s="1"/>
       <c r="AK731" s="1"/>
     </row>
-    <row r="732" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -25193,7 +25192,7 @@
       <c r="AJ732" s="1"/>
       <c r="AK732" s="1"/>
     </row>
-    <row r="733" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -25232,7 +25231,7 @@
       <c r="AJ733" s="1"/>
       <c r="AK733" s="1"/>
     </row>
-    <row r="734" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -25271,7 +25270,7 @@
       <c r="AJ734" s="1"/>
       <c r="AK734" s="1"/>
     </row>
-    <row r="735" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -25310,7 +25309,7 @@
       <c r="AJ735" s="1"/>
       <c r="AK735" s="1"/>
     </row>
-    <row r="736" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -25349,7 +25348,7 @@
       <c r="AJ736" s="1"/>
       <c r="AK736" s="1"/>
     </row>
-    <row r="737" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -25388,7 +25387,7 @@
       <c r="AJ737" s="1"/>
       <c r="AK737" s="1"/>
     </row>
-    <row r="738" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -25427,7 +25426,7 @@
       <c r="AJ738" s="1"/>
       <c r="AK738" s="1"/>
     </row>
-    <row r="739" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -25466,7 +25465,7 @@
       <c r="AJ739" s="1"/>
       <c r="AK739" s="1"/>
     </row>
-    <row r="740" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -25505,7 +25504,7 @@
       <c r="AJ740" s="1"/>
       <c r="AK740" s="1"/>
     </row>
-    <row r="741" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -25544,7 +25543,7 @@
       <c r="AJ741" s="1"/>
       <c r="AK741" s="1"/>
     </row>
-    <row r="742" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -25583,7 +25582,7 @@
       <c r="AJ742" s="1"/>
       <c r="AK742" s="1"/>
     </row>
-    <row r="743" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -25622,7 +25621,7 @@
       <c r="AJ743" s="1"/>
       <c r="AK743" s="1"/>
     </row>
-    <row r="744" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -25661,7 +25660,7 @@
       <c r="AJ744" s="1"/>
       <c r="AK744" s="1"/>
     </row>
-    <row r="745" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -25700,7 +25699,7 @@
       <c r="AJ745" s="1"/>
       <c r="AK745" s="1"/>
     </row>
-    <row r="746" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -25739,7 +25738,7 @@
       <c r="AJ746" s="1"/>
       <c r="AK746" s="1"/>
     </row>
-    <row r="747" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -25778,7 +25777,7 @@
       <c r="AJ747" s="1"/>
       <c r="AK747" s="1"/>
     </row>
-    <row r="748" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -25817,7 +25816,7 @@
       <c r="AJ748" s="1"/>
       <c r="AK748" s="1"/>
     </row>
-    <row r="749" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -25856,7 +25855,7 @@
       <c r="AJ749" s="1"/>
       <c r="AK749" s="1"/>
     </row>
-    <row r="750" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -25895,7 +25894,7 @@
       <c r="AJ750" s="1"/>
       <c r="AK750" s="1"/>
     </row>
-    <row r="751" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -25934,7 +25933,7 @@
       <c r="AJ751" s="1"/>
       <c r="AK751" s="1"/>
     </row>
-    <row r="752" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -25973,7 +25972,7 @@
       <c r="AJ752" s="1"/>
       <c r="AK752" s="1"/>
     </row>
-    <row r="753" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -26012,7 +26011,7 @@
       <c r="AJ753" s="1"/>
       <c r="AK753" s="1"/>
     </row>
-    <row r="754" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -26051,7 +26050,7 @@
       <c r="AJ754" s="1"/>
       <c r="AK754" s="1"/>
     </row>
-    <row r="755" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -26090,7 +26089,7 @@
       <c r="AJ755" s="1"/>
       <c r="AK755" s="1"/>
     </row>
-    <row r="756" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -26129,7 +26128,7 @@
       <c r="AJ756" s="1"/>
       <c r="AK756" s="1"/>
     </row>
-    <row r="757" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -26168,7 +26167,7 @@
       <c r="AJ757" s="1"/>
       <c r="AK757" s="1"/>
     </row>
-    <row r="758" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -26207,7 +26206,7 @@
       <c r="AJ758" s="1"/>
       <c r="AK758" s="1"/>
     </row>
-    <row r="759" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -26246,7 +26245,7 @@
       <c r="AJ759" s="1"/>
       <c r="AK759" s="1"/>
     </row>
-    <row r="760" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -26285,7 +26284,7 @@
       <c r="AJ760" s="1"/>
       <c r="AK760" s="1"/>
     </row>
-    <row r="761" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -26324,7 +26323,7 @@
       <c r="AJ761" s="1"/>
       <c r="AK761" s="1"/>
     </row>
-    <row r="762" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -26363,7 +26362,7 @@
       <c r="AJ762" s="1"/>
       <c r="AK762" s="1"/>
     </row>
-    <row r="763" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -26402,7 +26401,7 @@
       <c r="AJ763" s="1"/>
       <c r="AK763" s="1"/>
     </row>
-    <row r="764" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -26441,7 +26440,7 @@
       <c r="AJ764" s="1"/>
       <c r="AK764" s="1"/>
     </row>
-    <row r="765" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -26480,7 +26479,7 @@
       <c r="AJ765" s="1"/>
       <c r="AK765" s="1"/>
     </row>
-    <row r="766" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -26519,7 +26518,7 @@
       <c r="AJ766" s="1"/>
       <c r="AK766" s="1"/>
     </row>
-    <row r="767" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -26558,7 +26557,7 @@
       <c r="AJ767" s="1"/>
       <c r="AK767" s="1"/>
     </row>
-    <row r="768" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -26597,7 +26596,7 @@
       <c r="AJ768" s="1"/>
       <c r="AK768" s="1"/>
     </row>
-    <row r="769" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -26636,7 +26635,7 @@
       <c r="AJ769" s="1"/>
       <c r="AK769" s="1"/>
     </row>
-    <row r="770" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -26675,7 +26674,7 @@
       <c r="AJ770" s="1"/>
       <c r="AK770" s="1"/>
     </row>
-    <row r="771" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -26714,7 +26713,7 @@
       <c r="AJ771" s="1"/>
       <c r="AK771" s="1"/>
     </row>
-    <row r="772" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -26753,7 +26752,7 @@
       <c r="AJ772" s="1"/>
       <c r="AK772" s="1"/>
     </row>
-    <row r="773" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -26792,7 +26791,7 @@
       <c r="AJ773" s="1"/>
       <c r="AK773" s="1"/>
     </row>
-    <row r="774" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -26831,7 +26830,7 @@
       <c r="AJ774" s="1"/>
       <c r="AK774" s="1"/>
     </row>
-    <row r="775" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -26870,7 +26869,7 @@
       <c r="AJ775" s="1"/>
       <c r="AK775" s="1"/>
     </row>
-    <row r="776" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -26909,7 +26908,7 @@
       <c r="AJ776" s="1"/>
       <c r="AK776" s="1"/>
     </row>
-    <row r="777" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -26948,7 +26947,7 @@
       <c r="AJ777" s="1"/>
       <c r="AK777" s="1"/>
     </row>
-    <row r="778" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -26987,7 +26986,7 @@
       <c r="AJ778" s="1"/>
       <c r="AK778" s="1"/>
     </row>
-    <row r="779" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -27026,7 +27025,7 @@
       <c r="AJ779" s="1"/>
       <c r="AK779" s="1"/>
     </row>
-    <row r="780" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -27065,7 +27064,7 @@
       <c r="AJ780" s="1"/>
       <c r="AK780" s="1"/>
     </row>
-    <row r="781" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -27104,7 +27103,7 @@
       <c r="AJ781" s="1"/>
       <c r="AK781" s="1"/>
     </row>
-    <row r="782" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -27143,7 +27142,7 @@
       <c r="AJ782" s="1"/>
       <c r="AK782" s="1"/>
     </row>
-    <row r="783" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -27182,7 +27181,7 @@
       <c r="AJ783" s="1"/>
       <c r="AK783" s="1"/>
     </row>
-    <row r="784" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -27221,7 +27220,7 @@
       <c r="AJ784" s="1"/>
       <c r="AK784" s="1"/>
     </row>
-    <row r="785" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -27260,7 +27259,7 @@
       <c r="AJ785" s="1"/>
       <c r="AK785" s="1"/>
     </row>
-    <row r="786" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -27299,7 +27298,7 @@
       <c r="AJ786" s="1"/>
       <c r="AK786" s="1"/>
     </row>
-    <row r="787" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -27338,7 +27337,7 @@
       <c r="AJ787" s="1"/>
       <c r="AK787" s="1"/>
     </row>
-    <row r="788" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -27377,7 +27376,7 @@
       <c r="AJ788" s="1"/>
       <c r="AK788" s="1"/>
     </row>
-    <row r="789" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -27416,7 +27415,7 @@
       <c r="AJ789" s="1"/>
       <c r="AK789" s="1"/>
     </row>
-    <row r="790" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -27455,7 +27454,7 @@
       <c r="AJ790" s="1"/>
       <c r="AK790" s="1"/>
     </row>
-    <row r="791" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -27494,7 +27493,7 @@
       <c r="AJ791" s="1"/>
       <c r="AK791" s="1"/>
     </row>
-    <row r="792" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -27533,7 +27532,7 @@
       <c r="AJ792" s="1"/>
       <c r="AK792" s="1"/>
     </row>
-    <row r="793" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -27572,7 +27571,7 @@
       <c r="AJ793" s="1"/>
       <c r="AK793" s="1"/>
     </row>
-    <row r="794" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -27611,7 +27610,7 @@
       <c r="AJ794" s="1"/>
       <c r="AK794" s="1"/>
     </row>
-    <row r="795" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -27650,7 +27649,7 @@
       <c r="AJ795" s="1"/>
       <c r="AK795" s="1"/>
     </row>
-    <row r="796" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -27689,7 +27688,7 @@
       <c r="AJ796" s="1"/>
       <c r="AK796" s="1"/>
     </row>
-    <row r="797" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -27728,7 +27727,7 @@
       <c r="AJ797" s="1"/>
       <c r="AK797" s="1"/>
     </row>
-    <row r="798" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -27767,7 +27766,7 @@
       <c r="AJ798" s="1"/>
       <c r="AK798" s="1"/>
     </row>
-    <row r="799" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -27806,7 +27805,7 @@
       <c r="AJ799" s="1"/>
       <c r="AK799" s="1"/>
     </row>
-    <row r="800" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -27845,7 +27844,7 @@
       <c r="AJ800" s="1"/>
       <c r="AK800" s="1"/>
     </row>
-    <row r="801" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -27884,7 +27883,7 @@
       <c r="AJ801" s="1"/>
       <c r="AK801" s="1"/>
     </row>
-    <row r="802" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -27923,7 +27922,7 @@
       <c r="AJ802" s="1"/>
       <c r="AK802" s="1"/>
     </row>
-    <row r="803" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -27962,7 +27961,7 @@
       <c r="AJ803" s="1"/>
       <c r="AK803" s="1"/>
     </row>
-    <row r="804" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -28001,7 +28000,7 @@
       <c r="AJ804" s="1"/>
       <c r="AK804" s="1"/>
     </row>
-    <row r="805" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -28040,7 +28039,7 @@
       <c r="AJ805" s="1"/>
       <c r="AK805" s="1"/>
     </row>
-    <row r="806" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -28079,7 +28078,7 @@
       <c r="AJ806" s="1"/>
       <c r="AK806" s="1"/>
     </row>
-    <row r="807" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -28118,7 +28117,7 @@
       <c r="AJ807" s="1"/>
       <c r="AK807" s="1"/>
     </row>
-    <row r="808" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -28157,7 +28156,7 @@
       <c r="AJ808" s="1"/>
       <c r="AK808" s="1"/>
     </row>
-    <row r="809" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -28196,7 +28195,7 @@
       <c r="AJ809" s="1"/>
       <c r="AK809" s="1"/>
     </row>
-    <row r="810" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -28235,7 +28234,7 @@
       <c r="AJ810" s="1"/>
       <c r="AK810" s="1"/>
     </row>
-    <row r="811" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -28274,7 +28273,7 @@
       <c r="AJ811" s="1"/>
       <c r="AK811" s="1"/>
     </row>
-    <row r="812" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -28313,7 +28312,7 @@
       <c r="AJ812" s="1"/>
       <c r="AK812" s="1"/>
     </row>
-    <row r="813" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -28352,7 +28351,7 @@
       <c r="AJ813" s="1"/>
       <c r="AK813" s="1"/>
     </row>
-    <row r="814" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -28391,7 +28390,7 @@
       <c r="AJ814" s="1"/>
       <c r="AK814" s="1"/>
     </row>
-    <row r="815" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -28430,7 +28429,7 @@
       <c r="AJ815" s="1"/>
       <c r="AK815" s="1"/>
     </row>
-    <row r="816" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -28469,7 +28468,7 @@
       <c r="AJ816" s="1"/>
       <c r="AK816" s="1"/>
     </row>
-    <row r="817" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -28508,7 +28507,7 @@
       <c r="AJ817" s="1"/>
       <c r="AK817" s="1"/>
     </row>
-    <row r="818" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -28547,7 +28546,7 @@
       <c r="AJ818" s="1"/>
       <c r="AK818" s="1"/>
     </row>
-    <row r="819" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -28586,7 +28585,7 @@
       <c r="AJ819" s="1"/>
       <c r="AK819" s="1"/>
     </row>
-    <row r="820" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -28625,7 +28624,7 @@
       <c r="AJ820" s="1"/>
       <c r="AK820" s="1"/>
     </row>
-    <row r="821" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -28664,7 +28663,7 @@
       <c r="AJ821" s="1"/>
       <c r="AK821" s="1"/>
     </row>
-    <row r="822" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -28703,7 +28702,7 @@
       <c r="AJ822" s="1"/>
       <c r="AK822" s="1"/>
     </row>
-    <row r="823" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -28742,7 +28741,7 @@
       <c r="AJ823" s="1"/>
       <c r="AK823" s="1"/>
     </row>
-    <row r="824" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -28781,7 +28780,7 @@
       <c r="AJ824" s="1"/>
       <c r="AK824" s="1"/>
     </row>
-    <row r="825" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -28820,7 +28819,7 @@
       <c r="AJ825" s="1"/>
       <c r="AK825" s="1"/>
     </row>
-    <row r="826" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -28859,7 +28858,7 @@
       <c r="AJ826" s="1"/>
       <c r="AK826" s="1"/>
     </row>
-    <row r="827" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -28898,7 +28897,7 @@
       <c r="AJ827" s="1"/>
       <c r="AK827" s="1"/>
     </row>
-    <row r="828" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -28937,7 +28936,7 @@
       <c r="AJ828" s="1"/>
       <c r="AK828" s="1"/>
     </row>
-    <row r="829" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -28976,7 +28975,7 @@
       <c r="AJ829" s="1"/>
       <c r="AK829" s="1"/>
     </row>
-    <row r="830" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -29015,7 +29014,7 @@
       <c r="AJ830" s="1"/>
       <c r="AK830" s="1"/>
     </row>
-    <row r="831" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -29054,7 +29053,7 @@
       <c r="AJ831" s="1"/>
       <c r="AK831" s="1"/>
     </row>
-    <row r="832" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -29093,7 +29092,7 @@
       <c r="AJ832" s="1"/>
       <c r="AK832" s="1"/>
     </row>
-    <row r="833" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -29132,7 +29131,7 @@
       <c r="AJ833" s="1"/>
       <c r="AK833" s="1"/>
     </row>
-    <row r="834" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -29171,7 +29170,7 @@
       <c r="AJ834" s="1"/>
       <c r="AK834" s="1"/>
     </row>
-    <row r="835" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -29210,7 +29209,7 @@
       <c r="AJ835" s="1"/>
       <c r="AK835" s="1"/>
     </row>
-    <row r="836" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -29249,7 +29248,7 @@
       <c r="AJ836" s="1"/>
       <c r="AK836" s="1"/>
     </row>
-    <row r="837" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -29288,7 +29287,7 @@
       <c r="AJ837" s="1"/>
       <c r="AK837" s="1"/>
     </row>
-    <row r="838" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -29327,7 +29326,7 @@
       <c r="AJ838" s="1"/>
       <c r="AK838" s="1"/>
     </row>
-    <row r="839" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -29366,7 +29365,7 @@
       <c r="AJ839" s="1"/>
       <c r="AK839" s="1"/>
     </row>
-    <row r="840" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -29405,7 +29404,7 @@
       <c r="AJ840" s="1"/>
       <c r="AK840" s="1"/>
     </row>
-    <row r="841" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -29444,7 +29443,7 @@
       <c r="AJ841" s="1"/>
       <c r="AK841" s="1"/>
     </row>
-    <row r="842" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -29483,7 +29482,7 @@
       <c r="AJ842" s="1"/>
       <c r="AK842" s="1"/>
     </row>
-    <row r="843" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -29522,7 +29521,7 @@
       <c r="AJ843" s="1"/>
       <c r="AK843" s="1"/>
     </row>
-    <row r="844" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -29561,7 +29560,7 @@
       <c r="AJ844" s="1"/>
       <c r="AK844" s="1"/>
     </row>
-    <row r="845" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -29600,7 +29599,7 @@
       <c r="AJ845" s="1"/>
       <c r="AK845" s="1"/>
     </row>
-    <row r="846" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -29639,7 +29638,7 @@
       <c r="AJ846" s="1"/>
       <c r="AK846" s="1"/>
     </row>
-    <row r="847" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -29678,7 +29677,7 @@
       <c r="AJ847" s="1"/>
       <c r="AK847" s="1"/>
     </row>
-    <row r="848" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -29717,7 +29716,7 @@
       <c r="AJ848" s="1"/>
       <c r="AK848" s="1"/>
     </row>
-    <row r="849" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -29756,7 +29755,7 @@
       <c r="AJ849" s="1"/>
       <c r="AK849" s="1"/>
     </row>
-    <row r="850" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -29795,7 +29794,7 @@
       <c r="AJ850" s="1"/>
       <c r="AK850" s="1"/>
     </row>
-    <row r="851" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -29834,7 +29833,7 @@
       <c r="AJ851" s="1"/>
       <c r="AK851" s="1"/>
     </row>
-    <row r="852" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -29873,7 +29872,7 @@
       <c r="AJ852" s="1"/>
       <c r="AK852" s="1"/>
     </row>
-    <row r="853" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -29912,7 +29911,7 @@
       <c r="AJ853" s="1"/>
       <c r="AK853" s="1"/>
     </row>
-    <row r="854" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -29951,7 +29950,7 @@
       <c r="AJ854" s="1"/>
       <c r="AK854" s="1"/>
     </row>
-    <row r="855" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -29990,7 +29989,7 @@
       <c r="AJ855" s="1"/>
       <c r="AK855" s="1"/>
     </row>
-    <row r="856" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -30029,7 +30028,7 @@
       <c r="AJ856" s="1"/>
       <c r="AK856" s="1"/>
     </row>
-    <row r="857" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -30068,7 +30067,7 @@
       <c r="AJ857" s="1"/>
       <c r="AK857" s="1"/>
     </row>
-    <row r="858" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -30107,7 +30106,7 @@
       <c r="AJ858" s="1"/>
       <c r="AK858" s="1"/>
     </row>
-    <row r="859" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -30146,7 +30145,7 @@
       <c r="AJ859" s="1"/>
       <c r="AK859" s="1"/>
     </row>
-    <row r="860" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -30185,7 +30184,7 @@
       <c r="AJ860" s="1"/>
       <c r="AK860" s="1"/>
     </row>
-    <row r="861" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -30224,7 +30223,7 @@
       <c r="AJ861" s="1"/>
       <c r="AK861" s="1"/>
     </row>
-    <row r="862" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -30263,7 +30262,7 @@
       <c r="AJ862" s="1"/>
       <c r="AK862" s="1"/>
     </row>
-    <row r="863" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -30302,7 +30301,7 @@
       <c r="AJ863" s="1"/>
       <c r="AK863" s="1"/>
     </row>
-    <row r="864" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -30341,7 +30340,7 @@
       <c r="AJ864" s="1"/>
       <c r="AK864" s="1"/>
     </row>
-    <row r="865" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -30380,7 +30379,7 @@
       <c r="AJ865" s="1"/>
       <c r="AK865" s="1"/>
     </row>
-    <row r="866" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -30419,7 +30418,7 @@
       <c r="AJ866" s="1"/>
       <c r="AK866" s="1"/>
     </row>
-    <row r="867" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -30458,7 +30457,7 @@
       <c r="AJ867" s="1"/>
       <c r="AK867" s="1"/>
     </row>
-    <row r="868" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -30497,7 +30496,7 @@
       <c r="AJ868" s="1"/>
       <c r="AK868" s="1"/>
     </row>
-    <row r="869" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -30536,7 +30535,7 @@
       <c r="AJ869" s="1"/>
       <c r="AK869" s="1"/>
     </row>
-    <row r="870" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -30575,7 +30574,7 @@
       <c r="AJ870" s="1"/>
       <c r="AK870" s="1"/>
     </row>
-    <row r="871" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -30614,7 +30613,7 @@
       <c r="AJ871" s="1"/>
       <c r="AK871" s="1"/>
     </row>
-    <row r="872" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -30653,7 +30652,7 @@
       <c r="AJ872" s="1"/>
       <c r="AK872" s="1"/>
     </row>
-    <row r="873" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -30692,7 +30691,7 @@
       <c r="AJ873" s="1"/>
       <c r="AK873" s="1"/>
     </row>
-    <row r="874" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -30731,7 +30730,7 @@
       <c r="AJ874" s="1"/>
       <c r="AK874" s="1"/>
     </row>
-    <row r="875" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -30770,7 +30769,7 @@
       <c r="AJ875" s="1"/>
       <c r="AK875" s="1"/>
     </row>
-    <row r="876" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -30809,7 +30808,7 @@
       <c r="AJ876" s="1"/>
       <c r="AK876" s="1"/>
     </row>
-    <row r="877" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -30848,7 +30847,7 @@
       <c r="AJ877" s="1"/>
       <c r="AK877" s="1"/>
     </row>
-    <row r="878" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -30887,7 +30886,7 @@
       <c r="AJ878" s="1"/>
       <c r="AK878" s="1"/>
     </row>
-    <row r="879" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="879" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -30926,7 +30925,7 @@
       <c r="AJ879" s="1"/>
       <c r="AK879" s="1"/>
     </row>
-    <row r="880" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="880" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -30965,7 +30964,7 @@
       <c r="AJ880" s="1"/>
       <c r="AK880" s="1"/>
     </row>
-    <row r="881" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="881" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -31004,7 +31003,7 @@
       <c r="AJ881" s="1"/>
       <c r="AK881" s="1"/>
     </row>
-    <row r="882" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="882" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -31043,7 +31042,7 @@
       <c r="AJ882" s="1"/>
       <c r="AK882" s="1"/>
     </row>
-    <row r="883" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="883" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -31082,7 +31081,7 @@
       <c r="AJ883" s="1"/>
       <c r="AK883" s="1"/>
     </row>
-    <row r="884" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="884" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -31121,7 +31120,7 @@
       <c r="AJ884" s="1"/>
       <c r="AK884" s="1"/>
     </row>
-    <row r="885" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="885" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -31160,7 +31159,7 @@
       <c r="AJ885" s="1"/>
       <c r="AK885" s="1"/>
     </row>
-    <row r="886" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="886" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -31199,7 +31198,7 @@
       <c r="AJ886" s="1"/>
       <c r="AK886" s="1"/>
     </row>
-    <row r="887" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="887" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -31238,7 +31237,7 @@
       <c r="AJ887" s="1"/>
       <c r="AK887" s="1"/>
     </row>
-    <row r="888" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="888" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -31277,7 +31276,7 @@
       <c r="AJ888" s="1"/>
       <c r="AK888" s="1"/>
     </row>
-    <row r="889" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="889" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -31316,7 +31315,7 @@
       <c r="AJ889" s="1"/>
       <c r="AK889" s="1"/>
     </row>
-    <row r="890" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="890" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -31355,7 +31354,7 @@
       <c r="AJ890" s="1"/>
       <c r="AK890" s="1"/>
     </row>
-    <row r="891" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="891" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -31394,7 +31393,7 @@
       <c r="AJ891" s="1"/>
       <c r="AK891" s="1"/>
     </row>
-    <row r="892" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="892" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -31433,7 +31432,7 @@
       <c r="AJ892" s="1"/>
       <c r="AK892" s="1"/>
     </row>
-    <row r="893" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="893" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -31472,7 +31471,7 @@
       <c r="AJ893" s="1"/>
       <c r="AK893" s="1"/>
     </row>
-    <row r="894" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="894" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -31511,7 +31510,7 @@
       <c r="AJ894" s="1"/>
       <c r="AK894" s="1"/>
     </row>
-    <row r="895" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="895" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -31550,7 +31549,7 @@
       <c r="AJ895" s="1"/>
       <c r="AK895" s="1"/>
     </row>
-    <row r="896" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="896" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -31589,7 +31588,7 @@
       <c r="AJ896" s="1"/>
       <c r="AK896" s="1"/>
     </row>
-    <row r="897" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="897" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -31628,7 +31627,7 @@
       <c r="AJ897" s="1"/>
       <c r="AK897" s="1"/>
     </row>
-    <row r="898" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="898" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -31667,7 +31666,7 @@
       <c r="AJ898" s="1"/>
       <c r="AK898" s="1"/>
     </row>
-    <row r="899" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="899" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -31706,7 +31705,7 @@
       <c r="AJ899" s="1"/>
       <c r="AK899" s="1"/>
     </row>
-    <row r="900" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="900" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -31745,7 +31744,7 @@
       <c r="AJ900" s="1"/>
       <c r="AK900" s="1"/>
     </row>
-    <row r="901" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="901" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -31784,7 +31783,7 @@
       <c r="AJ901" s="1"/>
       <c r="AK901" s="1"/>
     </row>
-    <row r="902" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="902" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -31823,7 +31822,7 @@
       <c r="AJ902" s="1"/>
       <c r="AK902" s="1"/>
     </row>
-    <row r="903" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="903" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -31862,7 +31861,7 @@
       <c r="AJ903" s="1"/>
       <c r="AK903" s="1"/>
     </row>
-    <row r="904" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="904" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -31901,7 +31900,7 @@
       <c r="AJ904" s="1"/>
       <c r="AK904" s="1"/>
     </row>
-    <row r="905" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="905" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -31940,7 +31939,7 @@
       <c r="AJ905" s="1"/>
       <c r="AK905" s="1"/>
     </row>
-    <row r="906" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="906" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -31979,7 +31978,7 @@
       <c r="AJ906" s="1"/>
       <c r="AK906" s="1"/>
     </row>
-    <row r="907" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="907" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -32018,7 +32017,7 @@
       <c r="AJ907" s="1"/>
       <c r="AK907" s="1"/>
     </row>
-    <row r="908" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="908" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -32057,7 +32056,7 @@
       <c r="AJ908" s="1"/>
       <c r="AK908" s="1"/>
     </row>
-    <row r="909" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="909" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -32096,7 +32095,7 @@
       <c r="AJ909" s="1"/>
       <c r="AK909" s="1"/>
     </row>
-    <row r="910" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="910" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -32135,7 +32134,7 @@
       <c r="AJ910" s="1"/>
       <c r="AK910" s="1"/>
     </row>
-    <row r="911" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="911" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -32174,7 +32173,7 @@
       <c r="AJ911" s="1"/>
       <c r="AK911" s="1"/>
     </row>
-    <row r="912" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="912" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -32213,7 +32212,7 @@
       <c r="AJ912" s="1"/>
       <c r="AK912" s="1"/>
     </row>
-    <row r="913" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="913" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -32252,7 +32251,7 @@
       <c r="AJ913" s="1"/>
       <c r="AK913" s="1"/>
     </row>
-    <row r="914" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="914" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -32291,7 +32290,7 @@
       <c r="AJ914" s="1"/>
       <c r="AK914" s="1"/>
     </row>
-    <row r="915" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="915" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -32330,7 +32329,7 @@
       <c r="AJ915" s="1"/>
       <c r="AK915" s="1"/>
     </row>
-    <row r="916" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="916" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -32369,7 +32368,7 @@
       <c r="AJ916" s="1"/>
       <c r="AK916" s="1"/>
     </row>
-    <row r="917" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="917" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -32408,7 +32407,7 @@
       <c r="AJ917" s="1"/>
       <c r="AK917" s="1"/>
     </row>
-    <row r="918" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="918" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -32447,7 +32446,7 @@
       <c r="AJ918" s="1"/>
       <c r="AK918" s="1"/>
     </row>
-    <row r="919" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="919" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -32486,7 +32485,7 @@
       <c r="AJ919" s="1"/>
       <c r="AK919" s="1"/>
     </row>
-    <row r="920" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="920" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -32525,7 +32524,7 @@
       <c r="AJ920" s="1"/>
       <c r="AK920" s="1"/>
     </row>
-    <row r="921" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="921" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -32564,7 +32563,7 @@
       <c r="AJ921" s="1"/>
       <c r="AK921" s="1"/>
     </row>
-    <row r="922" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="922" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -32603,7 +32602,7 @@
       <c r="AJ922" s="1"/>
       <c r="AK922" s="1"/>
     </row>
-    <row r="923" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="923" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -32642,7 +32641,7 @@
       <c r="AJ923" s="1"/>
       <c r="AK923" s="1"/>
     </row>
-    <row r="924" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="924" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -32681,7 +32680,7 @@
       <c r="AJ924" s="1"/>
       <c r="AK924" s="1"/>
     </row>
-    <row r="925" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="925" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -32720,7 +32719,7 @@
       <c r="AJ925" s="1"/>
       <c r="AK925" s="1"/>
     </row>
-    <row r="926" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="926" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -32759,7 +32758,7 @@
       <c r="AJ926" s="1"/>
       <c r="AK926" s="1"/>
     </row>
-    <row r="927" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="927" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -32798,7 +32797,7 @@
       <c r="AJ927" s="1"/>
       <c r="AK927" s="1"/>
     </row>
-    <row r="928" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="928" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -32837,7 +32836,7 @@
       <c r="AJ928" s="1"/>
       <c r="AK928" s="1"/>
     </row>
-    <row r="929" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="929" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -32876,7 +32875,7 @@
       <c r="AJ929" s="1"/>
       <c r="AK929" s="1"/>
     </row>
-    <row r="930" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="930" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -32915,7 +32914,7 @@
       <c r="AJ930" s="1"/>
       <c r="AK930" s="1"/>
     </row>
-    <row r="931" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="931" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -32954,7 +32953,7 @@
       <c r="AJ931" s="1"/>
       <c r="AK931" s="1"/>
     </row>
-    <row r="932" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="932" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -32993,7 +32992,7 @@
       <c r="AJ932" s="1"/>
       <c r="AK932" s="1"/>
     </row>
-    <row r="933" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="933" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -33032,7 +33031,7 @@
       <c r="AJ933" s="1"/>
       <c r="AK933" s="1"/>
     </row>
-    <row r="934" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="934" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -33071,7 +33070,7 @@
       <c r="AJ934" s="1"/>
       <c r="AK934" s="1"/>
     </row>
-    <row r="935" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="935" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -33110,7 +33109,7 @@
       <c r="AJ935" s="1"/>
       <c r="AK935" s="1"/>
     </row>
-    <row r="936" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="936" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -33149,7 +33148,7 @@
       <c r="AJ936" s="1"/>
       <c r="AK936" s="1"/>
     </row>
-    <row r="937" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="937" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -33188,7 +33187,7 @@
       <c r="AJ937" s="1"/>
       <c r="AK937" s="1"/>
     </row>
-    <row r="938" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="938" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -33227,7 +33226,7 @@
       <c r="AJ938" s="1"/>
       <c r="AK938" s="1"/>
     </row>
-    <row r="939" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="939" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -33266,7 +33265,7 @@
       <c r="AJ939" s="1"/>
       <c r="AK939" s="1"/>
     </row>
-    <row r="940" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="940" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -33305,7 +33304,7 @@
       <c r="AJ940" s="1"/>
       <c r="AK940" s="1"/>
     </row>
-    <row r="941" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="941" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -33344,7 +33343,7 @@
       <c r="AJ941" s="1"/>
       <c r="AK941" s="1"/>
     </row>
-    <row r="942" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="942" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -33383,7 +33382,7 @@
       <c r="AJ942" s="1"/>
       <c r="AK942" s="1"/>
     </row>
-    <row r="943" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="943" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -33422,7 +33421,7 @@
       <c r="AJ943" s="1"/>
       <c r="AK943" s="1"/>
     </row>
-    <row r="944" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="944" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -33461,7 +33460,7 @@
       <c r="AJ944" s="1"/>
       <c r="AK944" s="1"/>
     </row>
-    <row r="945" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="945" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -33500,7 +33499,7 @@
       <c r="AJ945" s="1"/>
       <c r="AK945" s="1"/>
     </row>
-    <row r="946" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="946" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -33539,7 +33538,7 @@
       <c r="AJ946" s="1"/>
       <c r="AK946" s="1"/>
     </row>
-    <row r="947" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="947" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -33578,7 +33577,7 @@
       <c r="AJ947" s="1"/>
       <c r="AK947" s="1"/>
     </row>
-    <row r="948" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="948" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -33617,7 +33616,7 @@
       <c r="AJ948" s="1"/>
       <c r="AK948" s="1"/>
     </row>
-    <row r="949" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="949" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -33656,7 +33655,7 @@
       <c r="AJ949" s="1"/>
       <c r="AK949" s="1"/>
     </row>
-    <row r="950" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="950" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -33695,7 +33694,7 @@
       <c r="AJ950" s="1"/>
       <c r="AK950" s="1"/>
     </row>
-    <row r="951" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="951" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -33734,7 +33733,7 @@
       <c r="AJ951" s="1"/>
       <c r="AK951" s="1"/>
     </row>
-    <row r="952" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="952" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -33773,7 +33772,7 @@
       <c r="AJ952" s="1"/>
       <c r="AK952" s="1"/>
     </row>
-    <row r="953" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="953" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -33812,7 +33811,7 @@
       <c r="AJ953" s="1"/>
       <c r="AK953" s="1"/>
     </row>
-    <row r="954" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="954" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -33851,7 +33850,7 @@
       <c r="AJ954" s="1"/>
       <c r="AK954" s="1"/>
     </row>
-    <row r="955" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="955" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -33890,7 +33889,7 @@
       <c r="AJ955" s="1"/>
       <c r="AK955" s="1"/>
     </row>
-    <row r="956" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="956" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -33929,7 +33928,7 @@
       <c r="AJ956" s="1"/>
       <c r="AK956" s="1"/>
     </row>
-    <row r="957" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="957" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -33968,7 +33967,7 @@
       <c r="AJ957" s="1"/>
       <c r="AK957" s="1"/>
     </row>
-    <row r="958" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="958" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -34007,7 +34006,7 @@
       <c r="AJ958" s="1"/>
       <c r="AK958" s="1"/>
     </row>
-    <row r="959" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="959" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -34046,7 +34045,7 @@
       <c r="AJ959" s="1"/>
       <c r="AK959" s="1"/>
     </row>
-    <row r="960" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="960" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -34085,7 +34084,7 @@
       <c r="AJ960" s="1"/>
       <c r="AK960" s="1"/>
     </row>
-    <row r="961" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="961" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -34124,7 +34123,7 @@
       <c r="AJ961" s="1"/>
       <c r="AK961" s="1"/>
     </row>
-    <row r="962" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="962" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -34163,7 +34162,7 @@
       <c r="AJ962" s="1"/>
       <c r="AK962" s="1"/>
     </row>
-    <row r="963" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="963" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -34202,7 +34201,7 @@
       <c r="AJ963" s="1"/>
       <c r="AK963" s="1"/>
     </row>
-    <row r="964" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="964" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -34241,7 +34240,7 @@
       <c r="AJ964" s="1"/>
       <c r="AK964" s="1"/>
     </row>
-    <row r="965" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="965" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -34280,7 +34279,7 @@
       <c r="AJ965" s="1"/>
       <c r="AK965" s="1"/>
     </row>
-    <row r="966" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="966" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -34319,7 +34318,7 @@
       <c r="AJ966" s="1"/>
       <c r="AK966" s="1"/>
     </row>
-    <row r="967" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="967" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -34358,7 +34357,7 @@
       <c r="AJ967" s="1"/>
       <c r="AK967" s="1"/>
     </row>
-    <row r="968" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="968" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -34397,7 +34396,7 @@
       <c r="AJ968" s="1"/>
       <c r="AK968" s="1"/>
     </row>
-    <row r="969" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="969" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -34436,7 +34435,7 @@
       <c r="AJ969" s="1"/>
       <c r="AK969" s="1"/>
     </row>
-    <row r="970" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="970" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -34475,7 +34474,7 @@
       <c r="AJ970" s="1"/>
       <c r="AK970" s="1"/>
     </row>
-    <row r="971" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="971" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -34514,7 +34513,7 @@
       <c r="AJ971" s="1"/>
       <c r="AK971" s="1"/>
     </row>
-    <row r="972" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="972" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -34553,7 +34552,7 @@
       <c r="AJ972" s="1"/>
       <c r="AK972" s="1"/>
     </row>
-    <row r="973" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="973" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -34592,7 +34591,7 @@
       <c r="AJ973" s="1"/>
       <c r="AK973" s="1"/>
     </row>
-    <row r="974" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="974" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -34631,7 +34630,7 @@
       <c r="AJ974" s="1"/>
       <c r="AK974" s="1"/>
     </row>
-    <row r="975" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="975" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -34670,7 +34669,7 @@
       <c r="AJ975" s="1"/>
       <c r="AK975" s="1"/>
     </row>
-    <row r="976" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="976" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -34709,7 +34708,7 @@
       <c r="AJ976" s="1"/>
       <c r="AK976" s="1"/>
     </row>
-    <row r="977" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="977" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -34748,7 +34747,7 @@
       <c r="AJ977" s="1"/>
       <c r="AK977" s="1"/>
     </row>
-    <row r="978" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="978" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -34787,7 +34786,7 @@
       <c r="AJ978" s="1"/>
       <c r="AK978" s="1"/>
     </row>
-    <row r="979" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="979" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -34826,7 +34825,7 @@
       <c r="AJ979" s="1"/>
       <c r="AK979" s="1"/>
     </row>
-    <row r="980" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="980" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -34865,7 +34864,7 @@
       <c r="AJ980" s="1"/>
       <c r="AK980" s="1"/>
     </row>
-    <row r="981" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="981" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -34904,7 +34903,7 @@
       <c r="AJ981" s="1"/>
       <c r="AK981" s="1"/>
     </row>
-    <row r="982" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="982" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -34943,7 +34942,7 @@
       <c r="AJ982" s="1"/>
       <c r="AK982" s="1"/>
     </row>
-    <row r="983" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="983" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -34982,7 +34981,7 @@
       <c r="AJ983" s="1"/>
       <c r="AK983" s="1"/>
     </row>
-    <row r="984" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="984" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -35021,7 +35020,7 @@
       <c r="AJ984" s="1"/>
       <c r="AK984" s="1"/>
     </row>
-    <row r="985" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="985" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -35060,7 +35059,7 @@
       <c r="AJ985" s="1"/>
       <c r="AK985" s="1"/>
     </row>
-    <row r="986" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="986" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -35099,7 +35098,7 @@
       <c r="AJ986" s="1"/>
       <c r="AK986" s="1"/>
     </row>
-    <row r="987" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="987" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -35138,7 +35137,7 @@
       <c r="AJ987" s="1"/>
       <c r="AK987" s="1"/>
     </row>
-    <row r="988" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="988" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -35177,7 +35176,7 @@
       <c r="AJ988" s="1"/>
       <c r="AK988" s="1"/>
     </row>
-    <row r="989" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="989" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -35216,7 +35215,7 @@
       <c r="AJ989" s="1"/>
       <c r="AK989" s="1"/>
     </row>
-    <row r="990" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="990" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -35255,7 +35254,7 @@
       <c r="AJ990" s="1"/>
       <c r="AK990" s="1"/>
     </row>
-    <row r="991" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="991" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -35294,7 +35293,7 @@
       <c r="AJ991" s="1"/>
       <c r="AK991" s="1"/>
     </row>
-    <row r="992" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="992" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -35333,7 +35332,7 @@
       <c r="AJ992" s="1"/>
       <c r="AK992" s="1"/>
     </row>
-    <row r="993" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="993" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -35372,7 +35371,7 @@
       <c r="AJ993" s="1"/>
       <c r="AK993" s="1"/>
     </row>
-    <row r="994" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="994" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -35411,7 +35410,7 @@
       <c r="AJ994" s="1"/>
       <c r="AK994" s="1"/>
     </row>
-    <row r="995" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="995" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -35450,7 +35449,7 @@
       <c r="AJ995" s="1"/>
       <c r="AK995" s="1"/>
     </row>
-    <row r="996" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="996" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -35489,7 +35488,7 @@
       <c r="AJ996" s="1"/>
       <c r="AK996" s="1"/>
     </row>
-    <row r="997" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="997" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -35528,7 +35527,7 @@
       <c r="AJ997" s="1"/>
       <c r="AK997" s="1"/>
     </row>
-    <row r="998" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="998" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -35567,7 +35566,7 @@
       <c r="AJ998" s="1"/>
       <c r="AK998" s="1"/>
     </row>
-    <row r="999" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="999" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -35606,7 +35605,7 @@
       <c r="AJ999" s="1"/>
       <c r="AK999" s="1"/>
     </row>
-    <row r="1000" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1000" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -35645,7 +35644,7 @@
       <c r="AJ1000" s="1"/>
       <c r="AK1000" s="1"/>
     </row>
-    <row r="1001" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1001" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1001" s="2"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -35684,7 +35683,7 @@
       <c r="AJ1001" s="1"/>
       <c r="AK1001" s="1"/>
     </row>
-    <row r="1002" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1002" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1002" s="2"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdroid/Project/Flutter/CD-Team07/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20D69D3-E668-D14D-BC4A-74A572395A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20621522-082A-8349-B008-B90E31C4FB37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" xr2:uid="{4583C4E1-F2DA-44C2-8048-959C56D65FD0}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <t>Phân tích các tác nhân trong và ngoài hệ thống tác động lên hệ thống</t>
   </si>
   <si>
-    <t>Mạng xã hội</t>
+    <t>Ứng dụng mạng xã hội</t>
   </si>
 </sst>
 </file>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1398DD-088C-4BD8-AE80-68AE7DC4E2F9}">
   <dimension ref="A1:AK1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
